--- a/DDAf_2022_Tableau_annexe_Tab17.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -109,7 +109,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -154,13 +154,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -178,7 +178,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -247,7 +247,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -259,7 +259,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -361,7 +361,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -379,7 +379,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -397,7 +397,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>

--- a/DDAf_2022_Tableau_annexe_Tab17.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="171">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="170">
   <si>
     <t>Tableau 17 : Décomposition de la croissance par dépenses</t>
   </si>
@@ -1297,11 +1294,9 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1312,39 +1307,39 @@
     </row>
     <row r="2" spans="1:9" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="12">
         <v>85.9063399565634</v>
@@ -1370,10 +1365,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="C4" s="15">
         <v>87.387771935665697</v>
@@ -1399,10 +1394,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="19">
         <v>167.31744686528799</v>
@@ -1428,10 +1423,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>18</v>
       </c>
       <c r="C6" s="19">
         <v>240.25321780313399</v>
@@ -1457,10 +1452,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>20</v>
       </c>
       <c r="C7" s="19">
         <v>47.437972026470398</v>
@@ -1486,10 +1481,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="C8" s="19">
         <v>72.363571854676707</v>
@@ -1515,10 +1510,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>24</v>
       </c>
       <c r="C9" s="19">
         <v>246.679919949717</v>
@@ -1544,10 +1539,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="C10" s="19">
         <v>64.728021092037693</v>
@@ -1573,10 +1568,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>28</v>
       </c>
       <c r="C11" s="15">
         <v>126.497870787374</v>
@@ -1602,39 +1597,39 @@
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="C12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>31</v>
-      </c>
       <c r="D12" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>33</v>
       </c>
       <c r="C13" s="26">
         <v>77.340652454226401</v>
@@ -1660,10 +1655,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="C14" s="19">
         <v>429.505191605753</v>
@@ -1689,10 +1684,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="C15" s="19">
         <v>59.667298134454597</v>
@@ -1718,10 +1713,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="C16" s="19">
         <v>82.517312345315105</v>
@@ -1747,10 +1742,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="C17" s="12">
         <v>-39.914199809296001</v>
@@ -1776,10 +1771,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>43</v>
       </c>
       <c r="C18" s="12">
         <v>-192.16874348012001</v>
@@ -1805,10 +1800,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="C19" s="15">
         <v>73.906824191705596</v>
@@ -1834,10 +1829,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>47</v>
       </c>
       <c r="C20" s="12">
         <v>62.929022076162703</v>
@@ -1863,10 +1858,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>49</v>
       </c>
       <c r="C21" s="12">
         <v>12.9770353189662</v>
@@ -1892,10 +1887,10 @@
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="C22" s="19">
         <v>61.3024255244963</v>
@@ -1921,10 +1916,10 @@
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="26">
         <v>45.134479002914198</v>
@@ -1950,10 +1945,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="C24" s="19">
         <v>40.549347681497203</v>
@@ -1979,10 +1974,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="C25" s="19">
         <v>54.523775882891101</v>
@@ -2008,10 +2003,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>57</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>58</v>
       </c>
       <c r="C26" s="19">
         <v>-247.63781522139001</v>
@@ -2037,10 +2032,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="C27" s="19">
         <v>59.172950836937297</v>
@@ -2066,10 +2061,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>62</v>
       </c>
       <c r="C28" s="19">
         <v>91.554732320262602</v>
@@ -2095,10 +2090,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="C29" s="19">
         <v>73.585162207333099</v>
@@ -2124,10 +2119,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="C30" s="19">
         <v>98.013750080848595</v>
@@ -2153,10 +2148,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="C31" s="19">
         <v>8.6019689450079095</v>
@@ -2182,10 +2177,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>70</v>
       </c>
       <c r="C32" s="19">
         <v>-1.9444517587656001</v>
@@ -2211,39 +2206,39 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>72</v>
-      </c>
       <c r="C33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="C34" s="15">
         <v>130.25558777341899</v>
@@ -2269,10 +2264,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="C35" s="19">
         <v>95.431171477787601</v>
@@ -2281,10 +2276,10 @@
         <v>3.5132738512494099</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" s="19">
         <v>15.797951409427601</v>
@@ -2298,10 +2293,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="C36" s="19">
         <v>39.542010816764197</v>
@@ -2327,10 +2322,10 @@
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>80</v>
       </c>
       <c r="C37" s="19">
         <v>52.3323239213139</v>
@@ -2356,10 +2351,10 @@
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="26">
         <v>68.067494660897907</v>
@@ -2385,10 +2380,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>82</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>83</v>
       </c>
       <c r="C39" s="12">
         <v>-8186.0145410741998</v>
@@ -2414,10 +2409,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>85</v>
       </c>
       <c r="C40" s="19">
         <v>69.954302730767495</v>
@@ -2443,28 +2438,28 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="29" t="s">
-        <v>87</v>
-      </c>
       <c r="C41" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I41" s="13">
         <v>56.8624480816882</v>
@@ -2472,10 +2467,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>88</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>89</v>
       </c>
       <c r="C42" s="12">
         <v>26.082378590709901</v>
@@ -2484,10 +2479,10 @@
         <v>5.6684527324674301</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G42" s="12">
         <v>86.596362122858906</v>
@@ -2501,10 +2496,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>91</v>
       </c>
       <c r="C43" s="19">
         <v>4.9756549276702602</v>
@@ -2530,10 +2525,10 @@
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>93</v>
       </c>
       <c r="C44" s="19">
         <v>71.403250587679196</v>
@@ -2559,10 +2554,10 @@
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="26">
         <v>-1882.2820705761001</v>
@@ -2588,10 +2583,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="C46" s="19">
         <v>56.099317388326298</v>
@@ -2617,10 +2612,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="C47" s="19">
         <v>123.516579752003</v>
@@ -2646,10 +2641,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="C48" s="19">
         <v>3.10222589275683</v>
@@ -2675,10 +2670,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>102</v>
       </c>
       <c r="C49" s="19">
         <v>41.101791671253302</v>
@@ -2704,10 +2699,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="C50" s="19">
         <v>92.480040533429801</v>
@@ -2733,10 +2728,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>106</v>
       </c>
       <c r="C51" s="15">
         <v>48.287949693892401</v>
@@ -2762,10 +2757,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>107</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>108</v>
       </c>
       <c r="C52" s="19">
         <v>111.926066151284</v>
@@ -2791,10 +2786,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>110</v>
       </c>
       <c r="C53" s="19">
         <v>523.29626534719296</v>
@@ -2820,22 +2815,22 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="18" t="s">
-        <v>112</v>
-      </c>
       <c r="C54" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54" s="19">
         <v>-8.4992549635696992</v>
@@ -2844,15 +2839,15 @@
         <v>55.549331830462897</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="C55" s="19">
         <v>78.199832924301603</v>
@@ -2878,10 +2873,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>116</v>
       </c>
       <c r="C56" s="19">
         <v>41.236862076188103</v>
@@ -2907,10 +2902,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="C57" s="12">
         <v>90.006911933949894</v>
@@ -2936,10 +2931,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>120</v>
       </c>
       <c r="C58" s="19">
         <v>102.263191934378</v>
@@ -2965,10 +2960,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>122</v>
       </c>
       <c r="C59" s="19">
         <v>75.405191409487003</v>
@@ -2994,10 +2989,10 @@
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>124</v>
       </c>
       <c r="C60" s="15">
         <v>55.688884691264803</v>
@@ -3024,7 +3019,7 @@
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61" s="26">
         <v>81.826368705142897</v>
@@ -3051,7 +3046,7 @@
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C62" s="32">
         <v>-578.75331045500002</v>
@@ -3078,7 +3073,7 @@
     <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C63" s="32">
         <v>67.3890028631223</v>
@@ -3105,7 +3100,7 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" s="36">
         <v>76.1115328639399</v>
@@ -3132,7 +3127,7 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" s="39">
         <v>57.2888952540753</v>
@@ -3159,7 +3154,7 @@
     <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C66" s="42">
         <v>35.3021603487758</v>
@@ -3186,7 +3181,7 @@
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" s="39">
         <v>73.927597809956694</v>
@@ -3213,7 +3208,7 @@
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" s="39">
         <v>70.011162283473098</v>
@@ -3240,7 +3235,7 @@
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C69" s="39">
         <v>71.156479048591194</v>
@@ -3267,7 +3262,7 @@
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" s="39">
         <v>59.065879511320198</v>
@@ -3294,7 +3289,7 @@
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C71" s="39">
         <v>81.826368705142897</v>
@@ -3321,7 +3316,7 @@
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72" s="39">
         <v>74.654136138723402</v>
@@ -3348,7 +3343,7 @@
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C73" s="39">
         <v>73.463564380904501</v>
@@ -3375,7 +3370,7 @@
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C74" s="39">
         <v>-4375.6572259785999</v>
@@ -3402,7 +3397,7 @@
     <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C75" s="42">
         <v>87.165591413094702</v>
@@ -3429,7 +3424,7 @@
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C76" s="39">
         <v>81.510517473877599</v>
@@ -3456,7 +3451,7 @@
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C77" s="39">
         <v>73.7114308009197</v>
@@ -3483,7 +3478,7 @@
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C78" s="39">
         <v>46.161176504787903</v>
@@ -3510,7 +3505,7 @@
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C79" s="42">
         <v>63.655356504458602</v>
@@ -3537,7 +3532,7 @@
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C80" s="39">
         <v>-2114.0907716352999</v>
@@ -3564,7 +3559,7 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C81" s="39">
         <v>119.060126169675</v>
@@ -3591,7 +3586,7 @@
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C82" s="39">
         <v>66.985966701455297</v>
@@ -3618,7 +3613,7 @@
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C83" s="42">
         <v>62.921646687099397</v>
@@ -3645,7 +3640,7 @@
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C84" s="39">
         <v>72.434286757205996</v>
@@ -3672,7 +3667,7 @@
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C85" s="39">
         <v>180.249162927029</v>
@@ -3699,7 +3694,7 @@
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C86" s="39">
         <v>-873.62740481704998</v>
@@ -3726,7 +3721,7 @@
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C87" s="39">
         <v>74.080534981682305</v>
@@ -3753,7 +3748,7 @@
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C88" s="39">
         <v>69.520064174820803</v>
@@ -3780,7 +3775,7 @@
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C89" s="39">
         <v>53.814326890737597</v>
@@ -3807,7 +3802,7 @@
     <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C90" s="42">
         <v>74.666561227563804</v>
@@ -3834,7 +3829,7 @@
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C91" s="39">
         <v>73.552241259054099</v>
@@ -3861,7 +3856,7 @@
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C92" s="39">
         <v>76.760919047358001</v>
@@ -3888,7 +3883,7 @@
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C93" s="39">
         <v>119.656388382706</v>
@@ -3915,7 +3910,7 @@
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C94" s="39">
         <v>171.014961301639</v>
@@ -3942,7 +3937,7 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C95" s="39">
         <v>73.038445676449399</v>
@@ -3969,7 +3964,7 @@
     <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C96" s="42">
         <v>90.057252744956401</v>
@@ -3996,7 +3991,7 @@
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C97" s="39">
         <v>77.733069940404604</v>
@@ -4023,7 +4018,7 @@
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C98" s="39">
         <v>64.935077133018297</v>
@@ -4050,7 +4045,7 @@
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C99" s="42">
         <v>43.781243508522401</v>
@@ -4087,7 +4082,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -4100,7 +4095,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -4113,7 +4108,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -4126,7 +4121,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -4139,7 +4134,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -4172,7 +4167,7 @@
     </row>
     <row r="108" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -4194,7 +4189,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -4206,7 +4201,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -4228,7 +4223,7 @@
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -4240,7 +4235,7 @@
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -4262,7 +4257,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab17.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="171">
   <si>
     <t>Tableau 17 : Décomposition de la croissance par dépenses</t>
   </si>
@@ -487,19 +487,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -514,7 +517,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : calculs de l'auteur basés sur la base de données des Perspectives de l'économie mondiale du FMI, octobre 2021.</t>
@@ -3859,10 +3862,10 @@
         <v>153</v>
       </c>
       <c r="C92" s="39">
-        <v>76.760919047358001</v>
+        <v>76.768915669000805</v>
       </c>
       <c r="D92" s="39">
-        <v>12.769677275062</v>
+        <v>12.751171563349899</v>
       </c>
       <c r="E92" s="39">
         <v>28.339955030061599</v>
@@ -3871,13 +3874,13 @@
         <v>5.6491529064848498</v>
       </c>
       <c r="G92" s="39">
-        <v>22.594855934507301</v>
+        <v>22.719498363479499</v>
       </c>
       <c r="H92" s="39">
-        <v>18.478938590537901</v>
+        <v>18.5495027374903</v>
       </c>
       <c r="I92" s="40">
-        <v>4.1158543757299499</v>
+        <v>4.1699326226786901</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -3964,7 +3967,7 @@
     <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C96" s="42">
         <v>90.057252744956401</v>
@@ -3991,7 +3994,7 @@
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C97" s="39">
         <v>77.733069940404604</v>
@@ -4018,7 +4021,7 @@
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C98" s="39">
         <v>64.935077133018297</v>
@@ -4045,7 +4048,7 @@
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C99" s="42">
         <v>43.781243508522401</v>
@@ -4082,7 +4085,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -4095,7 +4098,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -4108,7 +4111,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -4121,7 +4124,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -4134,7 +4137,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -4167,7 +4170,7 @@
     </row>
     <row r="108" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -4189,7 +4192,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -4201,7 +4204,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -4223,7 +4226,7 @@
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -4235,7 +4238,7 @@
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab17.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="176">
   <si>
     <t>Tableau 17 : Décomposition de la croissance par dépenses</t>
   </si>
@@ -34,22 +34,40 @@
     <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
-    <t>Dépense de consommation finale (% de croissance du PIB), 2019</t>
-  </si>
-  <si>
-    <t>Formation brute de capital fixe (% de croissance du PIB), 2019</t>
-  </si>
-  <si>
-    <t>Variations des stocks (% de croissance du PIB), 2019</t>
-  </si>
-  <si>
-    <t>Exportations de biens et services (% de croissance du PIB), 2019</t>
-  </si>
-  <si>
-    <t>Importations de biens et services (% de croissance du PIB), 2019</t>
-  </si>
-  <si>
-    <t>Balance extérieure (% de croissance du PIB), 2019</t>
+    <t>Dépense de consommation finale en % du PIB, 2019</t>
+  </si>
+  <si>
+    <t>Formation brute de capital fixe en % du PIB, 2019</t>
+  </si>
+  <si>
+    <t>Variations des stocks en % du PIB, 2019</t>
+  </si>
+  <si>
+    <t>Balance extérieur en % du PIB, 2019</t>
+  </si>
+  <si>
+    <t>Importations de biens et services en % du PIB, 2019</t>
+  </si>
+  <si>
+    <t>Exportations de biens et services en % du PIB, 2019</t>
+  </si>
+  <si>
+    <t>Dépense de consommation finale (% de la croissance du PIB sur 10 ans), 2009-19</t>
+  </si>
+  <si>
+    <t>Formation brute de capital fixe (% de la croissance du PIB sur 10 ans), 2009-19</t>
+  </si>
+  <si>
+    <t>Variations des stocks (% de la croissance du PIB sur 10 ans), 2009-19</t>
+  </si>
+  <si>
+    <t>Exportations de biens et services (% de croissance du PIB sur 10 ans), 2009-19</t>
+  </si>
+  <si>
+    <t>Importations de biens et services (% de croissance du PIB sur 10 ans), 2009-19</t>
+  </si>
+  <si>
+    <t>Balance extérieur (% de la croissance du PIB sur 10 ans), 2009-19</t>
   </si>
   <si>
     <t>AGO</t>
@@ -64,15 +82,15 @@
     <t>Botswana</t>
   </si>
   <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>..</t>
   </si>
   <si>
-    <t>SWZ</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>LSO</t>
   </si>
   <si>
@@ -517,7 +535,7 @@
     <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
-    <t>Source : calculs de l'auteur basés sur la base de données des Perspectives de l'économie mondiale du FMI, octobre 2021.</t>
+    <t>Source : calculs de l'auteur basés sur la base de données des Perspectives de l'économie mondiale du FMI, avril 2022. Les chiffres sont ajustés de sorte que la consommation, la formation de capital, les variations des stocks et la balance extérieure en pourcentage du PIB totalisent 100.</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
@@ -1280,7 +1298,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1289,10 +1307,10 @@
     <col min="1" max="1" width="5.453125" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" style="51" customWidth="1"/>
-    <col min="4" max="8" width="13.26953125" customWidth="1"/>
+    <col min="4" max="14" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1303,8 +1321,14 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1329,2452 +1353,4216 @@
       <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" s="12">
-        <v>65.946186274587802</v>
+        <v>63.948350205771703</v>
       </c>
       <c r="D3" s="12">
-        <v>19.078011721114699</v>
+        <v>20.810885067446101</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
       </c>
       <c r="F3" s="12">
-        <v>45.511412270978703</v>
+        <v>15.240764726782199</v>
       </c>
       <c r="G3" s="12">
-        <v>30.535610258998801</v>
+        <v>26.384886509727199</v>
       </c>
       <c r="H3" s="13">
-        <v>14.975802004295801</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>41.625651236509398</v>
+      </c>
+      <c r="I3" s="12">
+        <v>72.191498853816597</v>
+      </c>
+      <c r="J3" s="12">
+        <v>-71.203840892656999</v>
+      </c>
+      <c r="K3" s="12">
+        <v>-0.1189401228986</v>
+      </c>
+      <c r="L3" s="12">
+        <v>-30.712534935186</v>
+      </c>
+      <c r="M3" s="12">
+        <v>-129.84381709693</v>
+      </c>
+      <c r="N3" s="13">
+        <v>99.131282161739193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="C4" s="15">
+        <v>77.603733069653998</v>
+      </c>
+      <c r="D4" s="15">
+        <v>29.499247295218201</v>
+      </c>
+      <c r="E4" s="15">
+        <v>2.0151496066257999</v>
+      </c>
+      <c r="F4" s="15">
+        <v>-9.118129971498</v>
+      </c>
+      <c r="G4" s="15">
+        <v>47.041020936073203</v>
+      </c>
+      <c r="H4" s="16">
+        <v>37.922890964575302</v>
+      </c>
+      <c r="I4" s="15">
+        <v>67.279116437016398</v>
+      </c>
+      <c r="J4" s="15">
+        <v>29.4355830318366</v>
+      </c>
+      <c r="K4" s="15">
+        <v>-2.2854951125079999</v>
+      </c>
+      <c r="L4" s="15">
+        <v>38.920336566801303</v>
+      </c>
+      <c r="M4" s="15">
+        <v>33.3495409231463</v>
+      </c>
+      <c r="N4" s="16">
+        <v>5.5707956436550203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="C5" s="19">
+        <v>95.021855418681994</v>
+      </c>
+      <c r="D5" s="19">
+        <v>15.0717613517657</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>-10.093616770448</v>
+      </c>
+      <c r="G5" s="19">
+        <v>57.819527997200602</v>
+      </c>
+      <c r="H5" s="20">
+        <v>47.725911226752999</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C6" s="19">
-        <v>205.64395892773101</v>
+        <v>126.375529754699</v>
       </c>
       <c r="D6" s="19">
-        <v>-158.70451125032</v>
+        <v>26.410744146510002</v>
       </c>
       <c r="E6" s="19">
-        <v>105.270689308447</v>
+        <v>-3.7048437860095</v>
       </c>
       <c r="F6" s="19">
-        <v>80.427023511505197</v>
+        <v>-49.081430115198998</v>
       </c>
       <c r="G6" s="19">
-        <v>132.63716050712401</v>
+        <v>97.181705493720202</v>
       </c>
       <c r="H6" s="20">
-        <v>-52.210136995630002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>48.100275378520998</v>
+      </c>
+      <c r="I6" s="19">
+        <v>82.5025112188939</v>
+      </c>
+      <c r="J6" s="19">
+        <v>20.592448927450398</v>
+      </c>
+      <c r="K6" s="19">
+        <v>-28.570464394586999</v>
+      </c>
+      <c r="L6" s="19">
+        <v>71.527865470614103</v>
+      </c>
+      <c r="M6" s="19">
+        <v>46.0523612223691</v>
+      </c>
+      <c r="N6" s="20">
+        <v>25.475504248242299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" s="19">
-        <v>119.73301363661901</v>
+        <v>111.794610654869</v>
       </c>
       <c r="D7" s="19">
-        <v>7.4984415768869903</v>
+        <v>7.6470114132513602</v>
       </c>
       <c r="E7" s="19">
-        <v>0.10572188758907999</v>
+        <v>0.21101929875239001</v>
       </c>
       <c r="F7" s="19">
-        <v>13.667545335261501</v>
+        <v>-19.652641366872999</v>
       </c>
       <c r="G7" s="19">
-        <v>41.004722439914303</v>
+        <v>38.1801895620209</v>
       </c>
       <c r="H7" s="20">
-        <v>-27.337177094489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>18.527548195148299</v>
+      </c>
+      <c r="I7" s="19">
+        <v>136.104269071624</v>
+      </c>
+      <c r="J7" s="19">
+        <v>-1.0725829231268</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0.13129780005887001</v>
+      </c>
+      <c r="L7" s="19">
+        <v>16.340633604571899</v>
+      </c>
+      <c r="M7" s="19">
+        <v>51.503617553128201</v>
+      </c>
+      <c r="N7" s="20">
+        <v>-35.162983948555997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="19">
-        <v>87.238643481373302</v>
+        <v>87.403869227868498</v>
       </c>
       <c r="D8" s="19">
-        <v>185.42965371193401</v>
+        <v>56.213608471039002</v>
       </c>
       <c r="E8" s="19">
-        <v>8.3276165478569499</v>
+        <v>3.8447114700385701</v>
       </c>
       <c r="F8" s="19">
-        <v>-136.03662719599001</v>
+        <v>-47.462189168945997</v>
       </c>
       <c r="G8" s="19">
-        <v>44.956303874489201</v>
+        <v>79.730548159660003</v>
       </c>
       <c r="H8" s="20">
-        <v>-180.99293107048001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>32.268358990713899</v>
+      </c>
+      <c r="I8" s="19">
+        <v>80.638527356069901</v>
+      </c>
+      <c r="J8" s="19">
+        <v>115.849014381465</v>
+      </c>
+      <c r="K8" s="19">
+        <v>2.5790866269034098</v>
+      </c>
+      <c r="L8" s="19">
+        <v>39.471208309735303</v>
+      </c>
+      <c r="M8" s="19">
+        <v>138.537836674174</v>
+      </c>
+      <c r="N8" s="20">
+        <v>-99.066628364438003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="C9" s="19">
+        <v>94.626828864255202</v>
+      </c>
+      <c r="D9" s="19">
+        <v>15.9333887052594</v>
+      </c>
+      <c r="E9" s="19">
+        <v>-0.78613451661720002</v>
+      </c>
+      <c r="F9" s="19">
+        <v>-9.7740830528973994</v>
+      </c>
+      <c r="G9" s="19">
+        <v>46.433218994887099</v>
+      </c>
+      <c r="H9" s="20">
+        <v>36.659135941989803</v>
+      </c>
+      <c r="I9" s="19">
+        <v>106.894280359935</v>
+      </c>
+      <c r="J9" s="19">
+        <v>-19.195759124348999</v>
+      </c>
+      <c r="K9" s="19">
+        <v>6.31458506088424</v>
+      </c>
+      <c r="L9" s="19">
+        <v>23.552019364878301</v>
+      </c>
+      <c r="M9" s="19">
+        <v>17.565125661347899</v>
+      </c>
+      <c r="N9" s="20">
+        <v>5.9868937035301899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10" s="19">
-        <v>92.762728547147802</v>
+        <v>83.440786962712394</v>
       </c>
       <c r="D10" s="19">
-        <v>4.44241103849218</v>
+        <v>15.350368071788299</v>
       </c>
       <c r="E10" s="19">
-        <v>0.32276474277072997</v>
+        <v>0.67459937715217999</v>
       </c>
       <c r="F10" s="19">
-        <v>24.1716838373607</v>
+        <v>0.53424558834715996</v>
       </c>
       <c r="G10" s="19">
-        <v>22.240148053603701</v>
+        <v>26.8144664336508</v>
       </c>
       <c r="H10" s="20">
-        <v>1.93153578375695</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>27.348712021998001</v>
+      </c>
+      <c r="I10" s="19">
+        <v>98.442557803620204</v>
+      </c>
+      <c r="J10" s="19">
+        <v>-8.0311393521329002</v>
+      </c>
+      <c r="K10" s="19">
+        <v>8.2357065073190192</v>
+      </c>
+      <c r="L10" s="19">
+        <v>38.635795936159802</v>
+      </c>
+      <c r="M10" s="19">
+        <v>37.282920894966097</v>
+      </c>
+      <c r="N10" s="20">
+        <v>1.3528750411937001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C11" s="15">
-        <v>31.111161009583402</v>
+        <v>60.256912748667702</v>
       </c>
       <c r="D11" s="15">
-        <v>70.7537055887516</v>
+        <v>35.756616717334701</v>
       </c>
       <c r="E11" s="15">
-        <v>-21.348120795953001</v>
+        <v>3.5052902637364101</v>
       </c>
       <c r="F11" s="15">
-        <v>8.0856429862496508</v>
+        <v>0.48118027026129001</v>
       </c>
       <c r="G11" s="15">
-        <v>-11.397611211362999</v>
+        <v>34.155012331571903</v>
       </c>
       <c r="H11" s="16">
-        <v>19.483254197613</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>34.636192601833201</v>
+      </c>
+      <c r="I11" s="15">
+        <v>43.400921185619801</v>
+      </c>
+      <c r="J11" s="15">
+        <v>51.457379365174397</v>
+      </c>
+      <c r="K11" s="15">
+        <v>2.5888865310899498</v>
+      </c>
+      <c r="L11" s="15">
+        <v>43.943411602788501</v>
+      </c>
+      <c r="M11" s="15">
+        <v>41.390598684672597</v>
+      </c>
+      <c r="N11" s="16">
+        <v>2.55281291811594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C13" s="26">
-        <v>85.508006328013394</v>
+        <v>80.007480135505105</v>
       </c>
       <c r="D13" s="26">
-        <v>16.1499227730713</v>
+        <v>18.950556430384399</v>
       </c>
       <c r="E13" s="26">
-        <v>-0.14461185334910001</v>
+        <v>0.77812073401190995</v>
       </c>
       <c r="F13" s="26">
-        <v>21.823706112074198</v>
+        <v>0.26384270009871003</v>
       </c>
       <c r="G13" s="26">
-        <v>23.714293939771199</v>
+        <v>30.653861400764502</v>
       </c>
       <c r="H13" s="27">
-        <v>-1.8905878288619</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>30.9177041008633</v>
+      </c>
+      <c r="I13" s="26">
+        <v>90.481996598452696</v>
+      </c>
+      <c r="J13" s="26">
+        <v>-10.818917120624</v>
+      </c>
+      <c r="K13" s="26">
+        <v>5.5777836731348804</v>
+      </c>
+      <c r="L13" s="26">
+        <v>26.136541683329298</v>
+      </c>
+      <c r="M13" s="26">
+        <v>11.377404834292401</v>
+      </c>
+      <c r="N13" s="27">
+        <v>14.7591368490368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C14" s="19">
-        <v>231.01689910445299</v>
+        <v>104.501717382468</v>
       </c>
       <c r="D14" s="19">
-        <v>37.944077600386599</v>
+        <v>19.286479885416199</v>
       </c>
       <c r="E14" s="19">
-        <v>2.5071985616000001E-12</v>
+        <v>-2.0448794330000001E-15</v>
       </c>
       <c r="F14" s="19">
-        <v>11.1699202123985</v>
+        <v>-23.788197267884001</v>
       </c>
       <c r="G14" s="19">
-        <v>180.13089693102299</v>
+        <v>33.718900597396001</v>
       </c>
       <c r="H14" s="20">
-        <v>-168.96097670483999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9.9307033295115801</v>
+      </c>
+      <c r="I14" s="19">
+        <v>66.259330875995104</v>
+      </c>
+      <c r="J14" s="19">
+        <v>36.346686364251902</v>
+      </c>
+      <c r="K14" s="19">
+        <v>-1.0524974579999999E-14</v>
+      </c>
+      <c r="L14" s="19">
+        <v>23.4830170221991</v>
+      </c>
+      <c r="M14" s="19">
+        <v>26.089034262446301</v>
+      </c>
+      <c r="N14" s="20">
+        <v>-2.6060172402470001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C15" s="19">
-        <v>73.153189555187296</v>
+        <v>84.743686257354796</v>
       </c>
       <c r="D15" s="19">
-        <v>39.615612616087198</v>
+        <v>19.088506793809</v>
       </c>
       <c r="E15" s="19">
-        <v>0</v>
+        <v>-0.1538612977594</v>
       </c>
       <c r="F15" s="19">
-        <v>33.848946022536801</v>
+        <v>-3.6783317534044002</v>
       </c>
       <c r="G15" s="19">
-        <v>46.617748193808502</v>
+        <v>23.528422500723</v>
       </c>
       <c r="H15" s="20">
-        <v>-12.768802171272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>19.8500907473186</v>
+      </c>
+      <c r="I15" s="19">
+        <v>85.305902182491906</v>
+      </c>
+      <c r="J15" s="19">
+        <v>20.030227556631001</v>
+      </c>
+      <c r="K15" s="19">
+        <v>-0.37386938188270002</v>
+      </c>
+      <c r="L15" s="19">
+        <v>20.365304936469101</v>
+      </c>
+      <c r="M15" s="19">
+        <v>25.327565293709299</v>
+      </c>
+      <c r="N15" s="20">
+        <v>-4.9622603572401998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C16" s="19">
-        <v>146.23064645769699</v>
+        <v>103.67057682484899</v>
       </c>
       <c r="D16" s="19">
-        <v>-17.483835264109999</v>
+        <v>14.665883257403999</v>
       </c>
       <c r="E16" s="19">
         <v>0</v>
       </c>
       <c r="F16" s="19">
-        <v>12.313970021804099</v>
+        <v>-18.336460082253002</v>
       </c>
       <c r="G16" s="19">
-        <v>41.060781171498199</v>
+        <v>34.085293079814598</v>
       </c>
       <c r="H16" s="20">
-        <v>-28.746811149694</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15.7488329975615</v>
+      </c>
+      <c r="I16" s="19">
+        <v>63.7229039589621</v>
+      </c>
+      <c r="J16" s="19">
+        <v>-2.4878799566456</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0</v>
+      </c>
+      <c r="L16" s="19">
+        <v>-34.133787121711997</v>
+      </c>
+      <c r="M16" s="19">
+        <v>-72.898763119394999</v>
+      </c>
+      <c r="N16" s="20">
+        <v>38.7649759976835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C17" s="12">
-        <v>8.7724519573080997</v>
+        <v>85.896179932287097</v>
       </c>
       <c r="D17" s="12">
-        <v>120.01618523481299</v>
+        <v>23.2191005340486</v>
       </c>
       <c r="E17" s="12">
         <v>0</v>
       </c>
       <c r="F17" s="12">
-        <v>66.341621567634505</v>
+        <v>-9.1152804663356992</v>
       </c>
       <c r="G17" s="12">
-        <v>95.130258759756003</v>
+        <v>44.469763048951499</v>
       </c>
       <c r="H17" s="13">
-        <v>-28.788637202871001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>35.354482582615702</v>
+      </c>
+      <c r="I17" s="12">
+        <v>97.418965660706107</v>
+      </c>
+      <c r="J17" s="12">
+        <v>7.5393971395219799</v>
+      </c>
+      <c r="K17" s="12">
+        <v>-2.0836329590704001</v>
+      </c>
+      <c r="L17" s="12">
+        <v>35.6737946954892</v>
+      </c>
+      <c r="M17" s="12">
+        <v>38.548524536647001</v>
+      </c>
+      <c r="N17" s="13">
+        <v>-2.8747298411576998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C18" s="12">
-        <v>-100.61011988025</v>
+        <v>63.523547851339004</v>
       </c>
       <c r="D18" s="12">
-        <v>-15.270624358346</v>
+        <v>25.553286852126401</v>
       </c>
       <c r="E18" s="12">
-        <v>286.36173016017602</v>
+        <v>-3.3360911686994998</v>
       </c>
       <c r="F18" s="12">
-        <v>316.13645273865598</v>
+        <v>14.259256465233999</v>
       </c>
       <c r="G18" s="12">
-        <v>386.61743874368199</v>
+        <v>54.138834220727503</v>
       </c>
       <c r="H18" s="13">
-        <v>-70.480986005036996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68.398090685961407</v>
+      </c>
+      <c r="I18" s="12">
+        <v>589.13295970313004</v>
+      </c>
+      <c r="J18" s="12">
+        <v>-1251.5121693081001</v>
+      </c>
+      <c r="K18" s="12">
+        <v>-228.1668965973</v>
+      </c>
+      <c r="L18" s="12">
+        <v>251.84894563532399</v>
+      </c>
+      <c r="M18" s="12">
+        <v>-738.69716056694006</v>
+      </c>
+      <c r="N18" s="13">
+        <v>990.54610620226799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C19" s="15">
-        <v>81.628892723334701</v>
+        <v>91.095487779112901</v>
       </c>
       <c r="D19" s="15">
-        <v>23.619702237019201</v>
+        <v>12.6258449401479</v>
       </c>
       <c r="E19" s="15">
         <v>0</v>
       </c>
       <c r="F19" s="15">
-        <v>-63.099546104436001</v>
+        <v>-3.7213327192607002</v>
       </c>
       <c r="G19" s="15">
-        <v>-57.850951147132001</v>
+        <v>30.161214506676799</v>
       </c>
       <c r="H19" s="16">
-        <v>-5.2485949557769001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>26.439881787416098</v>
+      </c>
+      <c r="I19" s="15">
+        <v>84.197331673566595</v>
+      </c>
+      <c r="J19" s="15">
+        <v>13.687317692367101</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>24.460555383686099</v>
+      </c>
+      <c r="M19" s="15">
+        <v>22.3452047496198</v>
+      </c>
+      <c r="N19" s="16">
+        <v>2.1153506340663402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C20" s="12">
-        <v>-0.20427139226890001</v>
+        <v>78.2518044495569</v>
       </c>
       <c r="D20" s="12">
-        <v>68.224467551369301</v>
+        <v>7.8212753998424498</v>
       </c>
       <c r="E20" s="12">
-        <v>-0.95645769641269995</v>
+        <v>-0.1106060085118</v>
       </c>
       <c r="F20" s="12">
-        <v>96.604075097977599</v>
+        <v>14.037526159112501</v>
       </c>
       <c r="G20" s="12">
-        <v>63.667813577753897</v>
+        <v>33.3955634483547</v>
       </c>
       <c r="H20" s="13">
-        <v>32.936261535603997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>47.433089607467203</v>
+      </c>
+      <c r="I20" s="12">
+        <v>-61.596328005045002</v>
+      </c>
+      <c r="J20" s="12">
+        <v>159.04219967868099</v>
+      </c>
+      <c r="K20" s="12">
+        <v>-46.704917331235002</v>
+      </c>
+      <c r="L20" s="12">
+        <v>130.45430307862199</v>
+      </c>
+      <c r="M20" s="12">
+        <v>81.195257421024195</v>
+      </c>
+      <c r="N20" s="13">
+        <v>49.259045657597703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C21" s="12">
-        <v>2.5394845002457598</v>
+        <v>60.009208421326797</v>
       </c>
       <c r="D21" s="12">
-        <v>84.274233753470199</v>
+        <v>32.005816761659197</v>
       </c>
       <c r="E21" s="12">
         <v>0</v>
       </c>
       <c r="F21" s="12">
-        <v>53.272004383517</v>
+        <v>7.9849748170139501</v>
       </c>
       <c r="G21" s="12">
-        <v>40.085722637234603</v>
+        <v>32.467948863683297</v>
       </c>
       <c r="H21" s="13">
-        <v>13.1862817520737</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40.452923680697197</v>
+      </c>
+      <c r="I21" s="12">
+        <v>73.577492861916994</v>
+      </c>
+      <c r="J21" s="12">
+        <v>38.157253578999999</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>16.186923898127301</v>
+      </c>
+      <c r="M21" s="12">
+        <v>27.921670339044301</v>
+      </c>
+      <c r="N21" s="13">
+        <v>-11.734746440917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C22" s="19">
-        <v>105.77770281813601</v>
+        <v>103.410046405367</v>
       </c>
       <c r="D22" s="19">
-        <v>-14.809868768422</v>
+        <v>18.576710172739901</v>
       </c>
       <c r="E22" s="19">
         <v>0</v>
       </c>
       <c r="F22" s="19">
-        <v>8.8834324725687406</v>
+        <v>-21.986756578106998</v>
       </c>
       <c r="G22" s="19">
-        <v>-0.14873347771779999</v>
+        <v>44.315191964394302</v>
       </c>
       <c r="H22" s="20">
-        <v>9.0321659502865899</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>22.328435386287602</v>
+      </c>
+      <c r="I22" s="19">
+        <v>99.682552424041106</v>
+      </c>
+      <c r="J22" s="19">
+        <v>-20.768261569572999</v>
+      </c>
+      <c r="K22" s="19">
+        <v>0</v>
+      </c>
+      <c r="L22" s="19">
+        <v>45.3098956100471</v>
+      </c>
+      <c r="M22" s="19">
+        <v>24.2241864645144</v>
+      </c>
+      <c r="N22" s="20">
+        <v>21.085709145532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C23" s="26">
-        <v>50.9990670775571</v>
+        <v>83.144636764398896</v>
       </c>
       <c r="D23" s="26">
-        <v>43.636131606259603</v>
+        <v>18.249686355480598</v>
       </c>
       <c r="E23" s="26">
-        <v>19.083188786460699</v>
+        <v>-0.27833234252819999</v>
       </c>
       <c r="F23" s="26">
-        <v>31.4795448187059</v>
+        <v>-1.1159907773511999</v>
       </c>
       <c r="G23" s="26">
-        <v>45.197932294764001</v>
+        <v>31.551075369787501</v>
       </c>
       <c r="H23" s="27">
-        <v>-13.718387474211999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>30.435084592436301</v>
+      </c>
+      <c r="I23" s="26">
+        <v>105.436750361017</v>
+      </c>
+      <c r="J23" s="26">
+        <v>-54.094491229711998</v>
+      </c>
+      <c r="K23" s="26">
+        <v>-19.203353226775</v>
+      </c>
+      <c r="L23" s="26">
+        <v>46.0812615391173</v>
+      </c>
+      <c r="M23" s="26">
+        <v>-21.779832556352002</v>
+      </c>
+      <c r="N23" s="27">
+        <v>67.861094095469497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="C24" s="19">
+        <v>100.77498894942001</v>
+      </c>
+      <c r="D24" s="19">
+        <v>15.654376544439501</v>
+      </c>
+      <c r="E24" s="19">
+        <v>0.6982716209091</v>
+      </c>
+      <c r="F24" s="19">
+        <v>-17.127637114768</v>
+      </c>
+      <c r="G24" s="19">
+        <v>29.718597996157001</v>
+      </c>
+      <c r="H24" s="20">
+        <v>12.5909608813887</v>
+      </c>
+      <c r="I24" s="19">
+        <v>99.815892212272601</v>
+      </c>
+      <c r="J24" s="19">
+        <v>13.0432263816004</v>
+      </c>
+      <c r="K24" s="19">
+        <v>-1.0511459417203</v>
+      </c>
+      <c r="L24" s="19">
+        <v>21.5054097863705</v>
+      </c>
+      <c r="M24" s="19">
+        <v>33.313382438523199</v>
+      </c>
+      <c r="N24" s="20">
+        <v>-11.807972652153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C25" s="19">
-        <v>-149.21216637129001</v>
+        <v>60.6105933798815</v>
       </c>
       <c r="D25" s="19">
-        <v>24.7500350653659</v>
+        <v>27.754025638361998</v>
       </c>
       <c r="E25" s="19">
-        <v>200.324060209284</v>
+        <v>0</v>
       </c>
       <c r="F25" s="19">
-        <v>196.48872732929999</v>
+        <v>11.6353809817565</v>
       </c>
       <c r="G25" s="19">
-        <v>172.350514036932</v>
+        <v>143.593774180336</v>
       </c>
       <c r="H25" s="20">
-        <v>24.1382132974305</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>155.22915516209201</v>
+      </c>
+      <c r="I25" s="19">
+        <v>54.463187695925299</v>
+      </c>
+      <c r="J25" s="19">
+        <v>36.096007635673203</v>
+      </c>
+      <c r="K25" s="19">
+        <v>-4.0632799785431999</v>
+      </c>
+      <c r="L25" s="19">
+        <v>135.76635152873601</v>
+      </c>
+      <c r="M25" s="19">
+        <v>122.26226688179101</v>
+      </c>
+      <c r="N25" s="20">
+        <v>13.504084646944699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C26" s="19">
-        <v>16.044506597817399</v>
+        <v>92.781038895845299</v>
       </c>
       <c r="D26" s="19">
-        <v>-89.165182131559007</v>
+        <v>4.98025572990956</v>
       </c>
       <c r="E26" s="19">
         <v>0</v>
       </c>
       <c r="F26" s="19">
-        <v>138.36957019146601</v>
+        <v>2.2387053742452099</v>
       </c>
       <c r="G26" s="19">
-        <v>-34.751105216874997</v>
+        <v>29.294166004658301</v>
       </c>
       <c r="H26" s="20">
-        <v>173.120675436212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>31.532871378903501</v>
+      </c>
+      <c r="I26" s="19">
+        <v>48.3055288106722</v>
+      </c>
+      <c r="J26" s="19">
+        <v>-10.146950941730999</v>
+      </c>
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+      <c r="L26" s="19">
+        <v>81.7613292677093</v>
+      </c>
+      <c r="M26" s="19">
+        <v>19.919907136650501</v>
+      </c>
+      <c r="N26" s="20">
+        <v>61.8414221310587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="C27" s="19">
+        <v>77.718922524429402</v>
+      </c>
+      <c r="D27" s="19">
+        <v>35.193145442116602</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19">
+        <v>-12.912067966545999</v>
+      </c>
+      <c r="G27" s="19">
+        <v>20.833389935220801</v>
+      </c>
+      <c r="H27" s="20">
+        <v>7.9213219686747696</v>
+      </c>
+      <c r="I27" s="19">
+        <v>61.211742023281097</v>
+      </c>
+      <c r="J27" s="19">
+        <v>40.8983736467843</v>
+      </c>
+      <c r="K27" s="19">
+        <v>0</v>
+      </c>
+      <c r="L27" s="19">
+        <v>5.76453689990905</v>
+      </c>
+      <c r="M27" s="19">
+        <v>7.8746525699744598</v>
+      </c>
+      <c r="N27" s="20">
+        <v>-2.1101156700654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C28" s="19">
-        <v>91.807790914754307</v>
+        <v>89.408718120735998</v>
       </c>
       <c r="D28" s="19">
-        <v>11.144367984172201</v>
+        <v>19.0995929175626</v>
       </c>
       <c r="E28" s="19">
-        <v>1.41642710346666</v>
+        <v>0.37959939898715001</v>
       </c>
       <c r="F28" s="19">
-        <v>-0.16298452015709999</v>
+        <v>-8.8879104372857007</v>
       </c>
       <c r="G28" s="19">
-        <v>4.2056014846438998</v>
+        <v>20.2959306669051</v>
       </c>
       <c r="H28" s="20">
-        <v>-4.3685860048010001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>11.4080202296194</v>
+      </c>
+      <c r="I28" s="19">
+        <v>88.178834744133297</v>
+      </c>
+      <c r="J28" s="19">
+        <v>20.403642295293999</v>
+      </c>
+      <c r="K28" s="19">
+        <v>-0.16589634964530001</v>
+      </c>
+      <c r="L28" s="19">
+        <v>1.8234531440961701</v>
+      </c>
+      <c r="M28" s="19">
+        <v>10.240033833878099</v>
+      </c>
+      <c r="N28" s="20">
+        <v>-8.4165806897819007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C29" s="19">
-        <v>89.384748200831993</v>
+        <v>86.0028361845376</v>
       </c>
       <c r="D29" s="19">
-        <v>7.9604365674619499</v>
+        <v>18.313440162400699</v>
       </c>
       <c r="E29" s="19">
-        <v>17.168237729441501</v>
+        <v>1.4362442132077899</v>
       </c>
       <c r="F29" s="19">
-        <v>0.69412022588879996</v>
+        <v>-5.7525205601460003</v>
       </c>
       <c r="G29" s="19">
-        <v>15.2075427150815</v>
+        <v>34.176921802945401</v>
       </c>
       <c r="H29" s="20">
-        <v>-14.513422498902999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>28.424401242799199</v>
+      </c>
+      <c r="I29" s="19">
+        <v>90.648602648441795</v>
+      </c>
+      <c r="J29" s="19">
+        <v>-37.639360802986999</v>
+      </c>
+      <c r="K29" s="19">
+        <v>5.5119124043494097</v>
+      </c>
+      <c r="L29" s="19">
+        <v>52.321598359313803</v>
+      </c>
+      <c r="M29" s="19">
+        <v>10.842752609118399</v>
+      </c>
+      <c r="N29" s="20">
+        <v>41.478845750195703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="C30" s="19">
+        <v>95.197589785921707</v>
+      </c>
+      <c r="D30" s="19">
+        <v>20.478648738115499</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.18960741836405001</v>
+      </c>
+      <c r="F30" s="19">
+        <v>-15.865845942401</v>
+      </c>
+      <c r="G30" s="19">
+        <v>56.0249066628676</v>
+      </c>
+      <c r="H30" s="20">
+        <v>40.1590607204663</v>
+      </c>
+      <c r="I30" s="19">
+        <v>117.136647047577</v>
+      </c>
+      <c r="J30" s="19">
+        <v>10.064452631056501</v>
+      </c>
+      <c r="K30" s="19">
+        <v>4.52976555370598</v>
+      </c>
+      <c r="L30" s="19">
+        <v>24.999441853913101</v>
+      </c>
+      <c r="M30" s="19">
+        <v>56.730307086252601</v>
+      </c>
+      <c r="N30" s="20">
+        <v>-31.730865232340001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C31" s="19">
-        <v>80.750246791707795</v>
+        <v>91.121846484165403</v>
       </c>
       <c r="D31" s="19">
-        <v>59.032576505429397</v>
+        <v>26.881374127750899</v>
       </c>
       <c r="E31" s="19">
-        <v>-19.348469891412002</v>
+        <v>-3.6929683306494998</v>
       </c>
       <c r="F31" s="19">
-        <v>27.6406712734452</v>
+        <v>-14.310252281266999</v>
       </c>
       <c r="G31" s="19">
-        <v>48.075024679170802</v>
+        <v>36.1245303274289</v>
       </c>
       <c r="H31" s="20">
-        <v>-20.434353405726</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21.814278046162102</v>
+      </c>
+      <c r="I31" s="19">
+        <v>87.189995589627898</v>
+      </c>
+      <c r="J31" s="19">
+        <v>33.5014286088511</v>
+      </c>
+      <c r="K31" s="19">
+        <v>-8.1510119357996995</v>
+      </c>
+      <c r="L31" s="19">
+        <v>33.287083406552199</v>
+      </c>
+      <c r="M31" s="19">
+        <v>45.827495669231503</v>
+      </c>
+      <c r="N31" s="20">
+        <v>-12.540412262679</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C32" s="19">
-        <v>91.844190735693005</v>
+        <v>83.538228762246504</v>
       </c>
       <c r="D32" s="19">
-        <v>16.0065862068091</v>
+        <v>27.401649881234398</v>
       </c>
       <c r="E32" s="19">
         <v>0</v>
       </c>
       <c r="F32" s="19">
-        <v>-132.45496302533999</v>
+        <v>-10.939878643481</v>
       </c>
       <c r="G32" s="19">
-        <v>-124.60418612884</v>
+        <v>106.548121512452</v>
       </c>
       <c r="H32" s="20">
-        <v>-7.8507769118455002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <v>95.608242868971502</v>
+      </c>
+      <c r="I32" s="19">
+        <v>86.462742979434594</v>
+      </c>
+      <c r="J32" s="19">
+        <v>27.609550047147501</v>
+      </c>
+      <c r="K32" s="19">
+        <v>0</v>
+      </c>
+      <c r="L32" s="19">
+        <v>75.255478163911306</v>
+      </c>
+      <c r="M32" s="19">
+        <v>89.3277711904923</v>
+      </c>
+      <c r="N32" s="20">
+        <v>-14.072293026582001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C34" s="15">
-        <v>56.0390973228048</v>
+        <v>100.82064436036799</v>
       </c>
       <c r="D34" s="15">
-        <v>121.572023554699</v>
+        <v>16.0266184988945</v>
       </c>
       <c r="E34" s="15">
         <v>0</v>
       </c>
       <c r="F34" s="15">
-        <v>10.039447028873999</v>
+        <v>-16.847262859261999</v>
       </c>
       <c r="G34" s="15">
-        <v>87.650567914079502</v>
+        <v>66.991054403242302</v>
       </c>
       <c r="H34" s="16">
-        <v>-77.611120889827006</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <v>50.143791543979901</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="C36" s="19">
+        <v>63.143661684746</v>
+      </c>
+      <c r="D36" s="19">
+        <v>40.514441538709498</v>
+      </c>
+      <c r="E36" s="19">
+        <v>-2.7599176245388999</v>
+      </c>
+      <c r="F36" s="19">
+        <v>-0.89818559891670002</v>
+      </c>
+      <c r="G36" s="19">
+        <v>16.1389229593624</v>
+      </c>
+      <c r="H36" s="20">
+        <v>15.240737360445699</v>
+      </c>
+      <c r="I36" s="19">
+        <v>49.480144135838898</v>
+      </c>
+      <c r="J36" s="19">
+        <v>52.578487737725197</v>
+      </c>
+      <c r="K36" s="19">
+        <v>-9.3191073701937004</v>
+      </c>
+      <c r="L36" s="19">
+        <v>14.208716222156401</v>
+      </c>
+      <c r="M36" s="19">
+        <v>6.9482407255268601</v>
+      </c>
+      <c r="N36" s="20">
+        <v>7.2604754966295904</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C37" s="19">
-        <v>78.597696803506906</v>
+        <v>81.341196899199304</v>
       </c>
       <c r="D37" s="19">
-        <v>37.513277452158903</v>
+        <v>25.792738344197002</v>
       </c>
       <c r="E37" s="19">
-        <v>0.85410691003918005</v>
+        <v>0.62340404927197002</v>
       </c>
       <c r="F37" s="19">
-        <v>-2.1401938017772002</v>
+        <v>-7.7573392926681999</v>
       </c>
       <c r="G37" s="19">
-        <v>14.8248873657561</v>
+        <v>21.240061684439699</v>
       </c>
       <c r="H37" s="20">
-        <v>-16.965081163566001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>13.4827223917715</v>
+      </c>
+      <c r="I37" s="19">
+        <v>75.061888669707102</v>
+      </c>
+      <c r="J37" s="19">
+        <v>32.437025584303399</v>
+      </c>
+      <c r="K37" s="19">
+        <v>0.94372113135330005</v>
+      </c>
+      <c r="L37" s="19">
+        <v>17.518766388067899</v>
+      </c>
+      <c r="M37" s="19">
+        <v>25.9614017734316</v>
+      </c>
+      <c r="N37" s="20">
+        <v>-8.4426353853636993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C38" s="26">
-        <v>82.7342030609868</v>
+        <v>80.528044211126598</v>
       </c>
       <c r="D38" s="26">
-        <v>21.7409625662788</v>
+        <v>28.5137984948846</v>
       </c>
       <c r="E38" s="26">
-        <v>3.9405706006822299</v>
+        <v>-0.35015103209600001</v>
       </c>
       <c r="F38" s="26">
-        <v>5.1208092512457899</v>
+        <v>-8.6916916739151002</v>
       </c>
       <c r="G38" s="26">
-        <v>13.536543706801201</v>
+        <v>23.951800731495901</v>
       </c>
       <c r="H38" s="27">
-        <v>-8.4157344553529008</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15.260109057580699</v>
+      </c>
+      <c r="I38" s="26">
+        <v>72.395257193501493</v>
+      </c>
+      <c r="J38" s="26">
+        <v>30.609580427252499</v>
+      </c>
+      <c r="K38" s="26">
+        <v>-1.4593216867601</v>
+      </c>
+      <c r="L38" s="26">
+        <v>13.139230572565999</v>
+      </c>
+      <c r="M38" s="26">
+        <v>14.684746506559801</v>
+      </c>
+      <c r="N38" s="27">
+        <v>-1.5455159339938001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C39" s="12">
-        <v>-1224.4714469733001</v>
+        <v>63.1926953749145</v>
       </c>
       <c r="D39" s="12">
-        <v>1277.9166666666599</v>
+        <v>38.694360274717098</v>
       </c>
       <c r="E39" s="12">
-        <v>-134.58333333332999</v>
+        <v>7.2967403063397702</v>
       </c>
       <c r="F39" s="12">
-        <v>2385.29866967317</v>
+        <v>-9.1837959559713003</v>
       </c>
       <c r="G39" s="12">
-        <v>2204.1605572827898</v>
+        <v>31.719194874503099</v>
       </c>
       <c r="H39" s="13">
-        <v>181.13811280704201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+        <v>22.535398918531801</v>
+      </c>
+      <c r="I39" s="12">
+        <v>94.287565279991497</v>
+      </c>
+      <c r="J39" s="12">
+        <v>40.209409498438497</v>
+      </c>
+      <c r="K39" s="12">
+        <v>2.85236617314375</v>
+      </c>
+      <c r="L39" s="12">
+        <v>-19.059141237134</v>
+      </c>
+      <c r="M39" s="12">
+        <v>18.29019971444</v>
+      </c>
+      <c r="N39" s="13">
+        <v>-37.349340951574</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C40" s="19">
-        <v>72.589578388154194</v>
+        <v>90.272636741135997</v>
       </c>
       <c r="D40" s="19">
-        <v>25.760144681813099</v>
+        <v>17.831307190770598</v>
       </c>
       <c r="E40" s="19">
-        <v>-1.0625070645417001</v>
+        <v>0.16159034967399999</v>
       </c>
       <c r="F40" s="19">
-        <v>10.421611845823399</v>
+        <v>-8.2655342815805994</v>
       </c>
       <c r="G40" s="19">
-        <v>7.7088278512490103</v>
+        <v>25.766144942785701</v>
       </c>
       <c r="H40" s="20">
-        <v>2.7127839945744299</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17.500610661205201</v>
+      </c>
+      <c r="I40" s="19">
+        <v>101.936129010592</v>
+      </c>
+      <c r="J40" s="19">
+        <v>11.4112439663551</v>
+      </c>
+      <c r="K40" s="19">
+        <v>-0.51909694645339999</v>
+      </c>
+      <c r="L40" s="19">
+        <v>5.4964471808974498</v>
+      </c>
+      <c r="M40" s="19">
+        <v>18.3247232113915</v>
+      </c>
+      <c r="N40" s="20">
+        <v>-12.828276030493999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C42" s="12">
-        <v>37.1935564483504</v>
+        <v>66.769029198444201</v>
       </c>
       <c r="D42" s="12">
-        <v>104.235895038526</v>
+        <v>45.352944284289897</v>
       </c>
       <c r="E42" s="12">
-        <v>-57.980496725131999</v>
+        <v>-1.3057560646941999</v>
       </c>
       <c r="F42" s="12">
-        <v>86.596362122858906</v>
+        <v>-10.816217418040001</v>
       </c>
       <c r="G42" s="12">
-        <v>70.052318688427107</v>
+        <v>50.000965504542698</v>
       </c>
       <c r="H42" s="13">
-        <v>16.5440434454772</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39.1847480865028</v>
+      </c>
+      <c r="I42" s="12">
+        <v>39.2887904791599</v>
+      </c>
+      <c r="J42" s="12">
+        <v>62.550733559442499</v>
+      </c>
+      <c r="K42" s="12">
+        <v>15.309874422363199</v>
+      </c>
+      <c r="L42" s="12">
+        <v>42.906990448065699</v>
+      </c>
+      <c r="M42" s="12">
+        <v>60.056388909031</v>
+      </c>
+      <c r="N42" s="13">
+        <v>-17.149398460966001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C43" s="19">
-        <v>65.569762984008605</v>
+        <v>76.443399843512196</v>
       </c>
       <c r="D43" s="19">
-        <v>8.8988115373339696</v>
+        <v>27.643853345662698</v>
       </c>
       <c r="E43" s="19">
-        <v>-13.431657758835</v>
+        <v>4.2983815143224504</v>
       </c>
       <c r="F43" s="19">
-        <v>39.920167782964597</v>
+        <v>-8.3856347034972991</v>
       </c>
       <c r="G43" s="19">
-        <v>0.95708454547274002</v>
+        <v>45.130611742131698</v>
       </c>
       <c r="H43" s="20">
-        <v>38.963083237491801</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>36.744977038634403</v>
+      </c>
+      <c r="I43" s="19">
+        <v>75.881779657961999</v>
+      </c>
+      <c r="J43" s="19">
+        <v>17.798026665247399</v>
+      </c>
+      <c r="K43" s="19">
+        <v>6.5384669737582701</v>
+      </c>
+      <c r="L43" s="19">
+        <v>57.453703456696601</v>
+      </c>
+      <c r="M43" s="19">
+        <v>57.671976753664303</v>
+      </c>
+      <c r="N43" s="20">
+        <v>-0.21827329696770001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C44" s="19">
-        <v>109.459760351421</v>
+        <v>90.845052519681602</v>
       </c>
       <c r="D44" s="19">
-        <v>17.3125828892491</v>
+        <v>19.4966466480927</v>
       </c>
       <c r="E44" s="19">
-        <v>-42.827618457305</v>
+        <v>0.12347884152232</v>
       </c>
       <c r="F44" s="19">
-        <v>56.096559929880399</v>
+        <v>-10.465178009297</v>
       </c>
       <c r="G44" s="19">
-        <v>40.039960365242202</v>
+        <v>56.562046459644399</v>
       </c>
       <c r="H44" s="20">
-        <v>16.056599553138899</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>46.096868450347799</v>
+      </c>
+      <c r="I44" s="19">
+        <v>157.64305294248101</v>
+      </c>
+      <c r="J44" s="19">
+        <v>-8.7263786062652997</v>
+      </c>
+      <c r="K44" s="19">
+        <v>0.67052786813360998</v>
+      </c>
+      <c r="L44" s="19">
+        <v>59.650685265895</v>
+      </c>
+      <c r="M44" s="19">
+        <v>109.237887470245</v>
+      </c>
+      <c r="N44" s="20">
+        <v>-49.58720220435</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C45" s="26">
-        <v>-231.84325745090001</v>
+        <v>81.862435928092793</v>
       </c>
       <c r="D45" s="26">
-        <v>318.63733469813002</v>
+        <v>24.440341416062999</v>
       </c>
       <c r="E45" s="26">
-        <v>-37.269399766977003</v>
+        <v>2.3622237969985802</v>
       </c>
       <c r="F45" s="26">
-        <v>576.90014915409404</v>
+        <v>-8.6650011411544003</v>
       </c>
       <c r="G45" s="26">
-        <v>526.42482863340297</v>
+        <v>31.948407875980202</v>
       </c>
       <c r="H45" s="27">
-        <v>50.475320618205103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+        <v>23.2834067348257</v>
+      </c>
+      <c r="I45" s="26">
+        <v>99.503213886722605</v>
+      </c>
+      <c r="J45" s="26">
+        <v>18.3185174017359</v>
+      </c>
+      <c r="K45" s="26">
+        <v>1.4612167296839</v>
+      </c>
+      <c r="L45" s="26">
+        <v>10.466450219498901</v>
+      </c>
+      <c r="M45" s="26">
+        <v>29.749398237641199</v>
+      </c>
+      <c r="N45" s="27">
+        <v>-19.282948018142001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C46" s="19">
-        <v>80.197970912871995</v>
+        <v>79.385013557361802</v>
       </c>
       <c r="D46" s="19">
-        <v>13.945713254543801</v>
+        <v>25.173255631160899</v>
       </c>
       <c r="E46" s="19">
-        <v>0</v>
+        <v>0.45654494806040002</v>
       </c>
       <c r="F46" s="19">
-        <v>-7.6433150815862003</v>
+        <v>-5.0148141365830998</v>
       </c>
       <c r="G46" s="19">
-        <v>-13.49963091417</v>
+        <v>29.9262623396789</v>
       </c>
       <c r="H46" s="20">
-        <v>5.8563158325841203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24.911448203095901</v>
+      </c>
+      <c r="I46" s="19">
+        <v>55.952453296047203</v>
+      </c>
+      <c r="J46" s="19">
+        <v>39.710254038865202</v>
+      </c>
+      <c r="K46" s="19">
+        <v>4.0983676331642203</v>
+      </c>
+      <c r="L46" s="19">
+        <v>41.814450461080497</v>
+      </c>
+      <c r="M46" s="19">
+        <v>41.575525429157103</v>
+      </c>
+      <c r="N46" s="20">
+        <v>0.23892503192337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C47" s="19">
-        <v>54.159209845991199</v>
+        <v>76.814876572497596</v>
       </c>
       <c r="D47" s="19">
-        <v>37.221537993004603</v>
+        <v>25.464803307247202</v>
       </c>
       <c r="E47" s="19">
-        <v>-5.1652463030000004E-10</v>
+        <v>1.1940791061537499</v>
       </c>
       <c r="F47" s="19">
-        <v>24.9235288648931</v>
+        <v>-3.4737589858984999</v>
       </c>
       <c r="G47" s="19">
-        <v>16.3042766966865</v>
+        <v>31.412755202827</v>
       </c>
       <c r="H47" s="20">
-        <v>8.6192521682066996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+        <v>27.938996216928398</v>
+      </c>
+      <c r="I47" s="19">
+        <v>60.864644465480197</v>
+      </c>
+      <c r="J47" s="19">
+        <v>33.887329220469098</v>
+      </c>
+      <c r="K47" s="19">
+        <v>1.1885482937515499</v>
+      </c>
+      <c r="L47" s="19">
+        <v>49.082191506237699</v>
+      </c>
+      <c r="M47" s="19">
+        <v>45.022713485938503</v>
+      </c>
+      <c r="N47" s="20">
+        <v>4.0594780202992098</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C48" s="19">
-        <v>-10.310879972415</v>
+        <v>77.056757661164696</v>
       </c>
       <c r="D48" s="19">
-        <v>54.067448380995998</v>
+        <v>37.551813898373098</v>
       </c>
       <c r="E48" s="19">
         <v>0</v>
       </c>
       <c r="F48" s="19">
-        <v>77.740858400827804</v>
+        <v>-14.608571559537999</v>
       </c>
       <c r="G48" s="19">
-        <v>21.4974268528652</v>
+        <v>65.257863566711507</v>
       </c>
       <c r="H48" s="20">
-        <v>56.243431530578597</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+        <v>50.649292007173699</v>
+      </c>
+      <c r="I48" s="19">
+        <v>46.905366195274603</v>
+      </c>
+      <c r="J48" s="19">
+        <v>34.439227317006001</v>
+      </c>
+      <c r="K48" s="19">
+        <v>-16.999819455638001</v>
+      </c>
+      <c r="L48" s="19">
+        <v>106.960696178977</v>
+      </c>
+      <c r="M48" s="19">
+        <v>71.305470235619197</v>
+      </c>
+      <c r="N48" s="20">
+        <v>35.655225943357898</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C49" s="19">
-        <v>56.363140716671701</v>
+        <v>78.789714875054401</v>
       </c>
       <c r="D49" s="19">
-        <v>41.994521613964402</v>
+        <v>21.107484647846899</v>
       </c>
       <c r="E49" s="19">
-        <v>-39.838669840873003</v>
+        <v>-1.0488401895549</v>
       </c>
       <c r="F49" s="19">
-        <v>41.396890245576103</v>
+        <v>1.1516406666535901</v>
       </c>
       <c r="G49" s="19">
-        <v>-8.4117264660499999E-2</v>
+        <v>22.624636894257801</v>
       </c>
       <c r="H49" s="20">
-        <v>41.481007510236601</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+        <v>23.776277560911399</v>
+      </c>
+      <c r="I49" s="19">
+        <v>76.629850101973204</v>
+      </c>
+      <c r="J49" s="19">
+        <v>30.348364525846701</v>
+      </c>
+      <c r="K49" s="19">
+        <v>-0.35592465542160001</v>
+      </c>
+      <c r="L49" s="19">
+        <v>6.53014344405904</v>
+      </c>
+      <c r="M49" s="19">
+        <v>13.1524334164574</v>
+      </c>
+      <c r="N49" s="20">
+        <v>-6.6222899723983</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C50" s="19">
-        <v>84.474891419093296</v>
+        <v>99.112208541487206</v>
       </c>
       <c r="D50" s="19">
-        <v>35.295486917050198</v>
+        <v>19.509312281710798</v>
       </c>
       <c r="E50" s="19">
         <v>0</v>
       </c>
       <c r="F50" s="19">
-        <v>32.493020722114302</v>
+        <v>-18.621520823198001</v>
       </c>
       <c r="G50" s="19">
-        <v>52.263399058258898</v>
+        <v>39.055705821441599</v>
       </c>
       <c r="H50" s="20">
-        <v>-19.770378336145001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+        <v>20.434184998243602</v>
+      </c>
+      <c r="I50" s="19">
+        <v>104.340453983036</v>
+      </c>
+      <c r="J50" s="19">
+        <v>40.707112513524599</v>
+      </c>
+      <c r="K50" s="19">
+        <v>0</v>
+      </c>
+      <c r="L50" s="19">
+        <v>35.295240803225703</v>
+      </c>
+      <c r="M50" s="19">
+        <v>80.342807299786202</v>
+      </c>
+      <c r="N50" s="20">
+        <v>-45.047566496560997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C51" s="15">
-        <v>107.703952454015</v>
+        <v>82.525137017695599</v>
       </c>
       <c r="D51" s="15">
-        <v>-2.3011992805288002</v>
+        <v>18.038207117785401</v>
       </c>
       <c r="E51" s="15">
-        <v>2.16525398358419</v>
+        <v>1.3622603211966799</v>
       </c>
       <c r="F51" s="15">
-        <v>63.154096699109601</v>
+        <v>-1.9256044566777</v>
       </c>
       <c r="G51" s="15">
-        <v>70.722103859726502</v>
+        <v>39.375232206406302</v>
       </c>
       <c r="H51" s="16">
-        <v>-7.5680071616589997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+        <v>37.449627749728599</v>
+      </c>
+      <c r="I51" s="15">
+        <v>94.555411823296893</v>
+      </c>
+      <c r="J51" s="15">
+        <v>-3.0565279631598998</v>
+      </c>
+      <c r="K51" s="15">
+        <v>1.6768238427851501</v>
+      </c>
+      <c r="L51" s="15">
+        <v>54.695171804851803</v>
+      </c>
+      <c r="M51" s="15">
+        <v>47.870879507773999</v>
+      </c>
+      <c r="N51" s="16">
+        <v>6.8242922970779496</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C52" s="19">
-        <v>45.048685861840397</v>
+        <v>90.044380345732506</v>
       </c>
       <c r="D52" s="19">
-        <v>2.27286105557774</v>
+        <v>17.2532228821267</v>
       </c>
       <c r="E52" s="19">
         <v>0</v>
       </c>
       <c r="F52" s="19">
-        <v>1.8813126073209001</v>
+        <v>-7.2976032278591996</v>
       </c>
       <c r="G52" s="19">
-        <v>-50.797140486845002</v>
+        <v>37.198024280363299</v>
       </c>
       <c r="H52" s="20">
-        <v>52.678453094166102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+        <v>29.9004210525041</v>
+      </c>
+      <c r="I52" s="19">
+        <v>82.842955407264597</v>
+      </c>
+      <c r="J52" s="19">
+        <v>31.103645635675001</v>
+      </c>
+      <c r="K52" s="19">
+        <v>0</v>
+      </c>
+      <c r="L52" s="19">
+        <v>43.536426523346599</v>
+      </c>
+      <c r="M52" s="19">
+        <v>57.483027566286196</v>
+      </c>
+      <c r="N52" s="20">
+        <v>-13.946601042939999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C53" s="19">
-        <v>1281.0070383534801</v>
+        <v>99.060204452282406</v>
       </c>
       <c r="D53" s="19">
-        <v>-556.32680054341995</v>
+        <v>14.8299449873297</v>
       </c>
       <c r="E53" s="19">
-        <v>517.74438316130795</v>
+        <v>-0.63982593522450004</v>
       </c>
       <c r="F53" s="19">
-        <v>-591.90666423125003</v>
+        <v>-13.250323504388</v>
       </c>
       <c r="G53" s="19">
-        <v>550.51795678032204</v>
+        <v>35.173854957886299</v>
       </c>
       <c r="H53" s="20">
-        <v>-1142.4246211187999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21.923531453498601</v>
+      </c>
+      <c r="I53" s="19">
+        <v>90.897677477463603</v>
+      </c>
+      <c r="J53" s="19">
+        <v>7.6822713154715201</v>
+      </c>
+      <c r="K53" s="19">
+        <v>-2.198358278887</v>
+      </c>
+      <c r="L53" s="19">
+        <v>44.436334958874099</v>
+      </c>
+      <c r="M53" s="19">
+        <v>40.817925472922397</v>
+      </c>
+      <c r="N53" s="20">
+        <v>3.6184094859518301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C55" s="19">
-        <v>76.063676064307302</v>
+        <v>89.716206273808993</v>
       </c>
       <c r="D55" s="19">
-        <v>39.878415602366402</v>
+        <v>20.042502634057598</v>
       </c>
       <c r="E55" s="19">
-        <v>13.2390899037045</v>
+        <v>2.4891218425389599</v>
       </c>
       <c r="F55" s="19">
-        <v>43.1493244436639</v>
+        <v>-12.247830750406001</v>
       </c>
       <c r="G55" s="19">
-        <v>72.330506017154207</v>
+        <v>37.953055528531998</v>
       </c>
       <c r="H55" s="20">
-        <v>-29.181181557932</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+        <v>25.7052247781265</v>
+      </c>
+      <c r="I55" s="19">
+        <v>94.695240070183502</v>
+      </c>
+      <c r="J55" s="19">
+        <v>18.814231012184301</v>
+      </c>
+      <c r="K55" s="19">
+        <v>3.71759140822707</v>
+      </c>
+      <c r="L55" s="19">
+        <v>33.767307177719601</v>
+      </c>
+      <c r="M55" s="19">
+        <v>50.994369668314299</v>
+      </c>
+      <c r="N55" s="20">
+        <v>-17.227062490594999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C56" s="19">
-        <v>81.170734769578999</v>
+        <v>85.343897851245799</v>
       </c>
       <c r="D56" s="19">
-        <v>54.794677938710002</v>
+        <v>29.953921127399202</v>
       </c>
       <c r="E56" s="19">
-        <v>-3.0183509034034999</v>
+        <v>0.29081476822718</v>
       </c>
       <c r="F56" s="19">
-        <v>2.0698445442020899</v>
+        <v>-15.588633746872</v>
       </c>
       <c r="G56" s="19">
-        <v>35.016906360694897</v>
+        <v>26.307042888995099</v>
       </c>
       <c r="H56" s="20">
-        <v>-32.947061804882999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10.7184091421229</v>
+      </c>
+      <c r="I56" s="19">
+        <v>78.337049038253198</v>
+      </c>
+      <c r="J56" s="19">
+        <v>31.725330806627699</v>
+      </c>
+      <c r="K56" s="19">
+        <v>0.59527863927581004</v>
+      </c>
+      <c r="L56" s="19">
+        <v>5.4456569261345704</v>
+      </c>
+      <c r="M56" s="19">
+        <v>16.103315410291199</v>
+      </c>
+      <c r="N56" s="20">
+        <v>-10.657658484157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C57" s="12">
-        <v>81.200453381752695</v>
+        <v>81.478107502945704</v>
       </c>
       <c r="D57" s="12">
-        <v>68.351748160902105</v>
+        <v>24.6252346217676</v>
       </c>
       <c r="E57" s="12">
-        <v>0.75367478685849998</v>
+        <v>0.79065284073227005</v>
       </c>
       <c r="F57" s="12">
-        <v>15.1809081024184</v>
+        <v>-6.8939949654454997</v>
       </c>
       <c r="G57" s="12">
-        <v>65.486784407765697</v>
+        <v>22.498460875630599</v>
       </c>
       <c r="H57" s="13">
-        <v>-50.305876302327</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15.6044659101851</v>
+      </c>
+      <c r="I57" s="12">
+        <v>90.2021733643424</v>
+      </c>
+      <c r="J57" s="12">
+        <v>36.300200778909101</v>
+      </c>
+      <c r="K57" s="12">
+        <v>2.5632435892629202</v>
+      </c>
+      <c r="L57" s="12">
+        <v>6.5778523707923604</v>
+      </c>
+      <c r="M57" s="12">
+        <v>35.643470103306697</v>
+      </c>
+      <c r="N57" s="13">
+        <v>-29.065617732513999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="C58" s="19">
+        <v>82.284473426373907</v>
+      </c>
+      <c r="D58" s="19">
+        <v>29.842621156008999</v>
+      </c>
+      <c r="E58" s="19">
+        <v>2.1150553106025201</v>
+      </c>
+      <c r="F58" s="19">
+        <v>-14.242149892984999</v>
+      </c>
+      <c r="G58" s="19">
+        <v>39.169576503536902</v>
+      </c>
+      <c r="H58" s="20">
+        <v>24.9274266105515</v>
+      </c>
+      <c r="I58" s="19">
+        <v>64.397260309599801</v>
+      </c>
+      <c r="J58" s="19">
+        <v>46.0857095651455</v>
+      </c>
+      <c r="K58" s="19">
+        <v>5.1639474896708801</v>
+      </c>
+      <c r="L58" s="19">
+        <v>34.197564124221898</v>
+      </c>
+      <c r="M58" s="19">
+        <v>49.844481488638102</v>
+      </c>
+      <c r="N58" s="20">
+        <v>-15.646917364416</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C59" s="19">
-        <v>147.69573651768701</v>
+        <v>102.43012174715599</v>
       </c>
       <c r="D59" s="19">
-        <v>10.550382533463999</v>
+        <v>16.177848980615501</v>
       </c>
       <c r="E59" s="19">
         <v>0</v>
       </c>
       <c r="F59" s="19">
-        <v>20.897110990077799</v>
+        <v>-18.607970727771999</v>
       </c>
       <c r="G59" s="19">
-        <v>79.143230028560595</v>
+        <v>44.627422019532297</v>
       </c>
       <c r="H59" s="20">
-        <v>-58.246119038483002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>26.019451291760401</v>
+      </c>
+      <c r="I59" s="19">
+        <v>96.862064286070904</v>
+      </c>
+      <c r="J59" s="19">
+        <v>27.306192930582501</v>
+      </c>
+      <c r="K59" s="19">
+        <v>0</v>
+      </c>
+      <c r="L59" s="19">
+        <v>45.798927012677098</v>
+      </c>
+      <c r="M59" s="19">
+        <v>69.967184229330798</v>
+      </c>
+      <c r="N59" s="20">
+        <v>-24.168257216653</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C60" s="15">
-        <v>64.699959294727606</v>
+        <v>88.356261523188195</v>
       </c>
       <c r="D60" s="15">
-        <v>54.880704986753003</v>
+        <v>20.538457901952398</v>
       </c>
       <c r="E60" s="15">
         <v>0</v>
       </c>
       <c r="F60" s="15">
-        <v>5.8558462054830702</v>
+        <v>-8.8947194251406003</v>
       </c>
       <c r="G60" s="15">
-        <v>25.744299476544501</v>
+        <v>31.201248049922</v>
       </c>
       <c r="H60" s="16">
-        <v>-19.888453271061</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>22.3065286247814</v>
+      </c>
+      <c r="I60" s="15">
+        <v>79.148225155052401</v>
+      </c>
+      <c r="J60" s="15">
+        <v>28.4880726788667</v>
+      </c>
+      <c r="K60" s="15">
+        <v>-0.61986674154370003</v>
+      </c>
+      <c r="L60" s="15">
+        <v>15.8668283742653</v>
+      </c>
+      <c r="M60" s="15">
+        <v>22.883259466640801</v>
+      </c>
+      <c r="N60" s="16">
+        <v>-7.0164310923753996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C61" s="26">
-        <v>83.564236856542294</v>
+        <v>82.022969392809102</v>
       </c>
       <c r="D61" s="26">
-        <v>51.393419171955401</v>
+        <v>23.556762781188599</v>
       </c>
       <c r="E61" s="26">
-        <v>-0.97971810350959998</v>
+        <v>0.74593557398064003</v>
       </c>
       <c r="F61" s="26">
-        <v>21.143277881973901</v>
+        <v>-6.3256677479782999</v>
       </c>
       <c r="G61" s="26">
-        <v>55.124581081224697</v>
+        <v>26.506617497869499</v>
       </c>
       <c r="H61" s="27">
-        <v>-33.981303197038002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20.180949749891202</v>
+      </c>
+      <c r="I61" s="26">
+        <v>86.691326602081205</v>
+      </c>
+      <c r="J61" s="26">
+        <v>31.1729849132137</v>
+      </c>
+      <c r="K61" s="26">
+        <v>2.1408081384261499</v>
+      </c>
+      <c r="L61" s="26">
+        <v>16.847965205851601</v>
+      </c>
+      <c r="M61" s="26">
+        <v>36.853084859572597</v>
+      </c>
+      <c r="N61" s="27">
+        <v>-20.005119653721</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C62" s="32">
-        <v>-37.243944225531003</v>
+        <v>81.411057413547894</v>
       </c>
       <c r="D62" s="32">
-        <v>142.49599554301301</v>
+        <v>23.3797523359253</v>
       </c>
       <c r="E62" s="32">
-        <v>-13.04899282255</v>
+        <v>1.1016530078093301</v>
       </c>
       <c r="F62" s="32">
-        <v>230.902183604161</v>
+        <v>-5.8924627572824999</v>
       </c>
       <c r="G62" s="32">
-        <v>223.18416441966099</v>
+        <v>29.097590762831899</v>
       </c>
       <c r="H62" s="33">
-        <v>7.7180192218993096</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>23.205128005549401</v>
+      </c>
+      <c r="I62" s="32">
+        <v>90.807879564766907</v>
+      </c>
+      <c r="J62" s="32">
+        <v>14.0192574607191</v>
+      </c>
+      <c r="K62" s="32">
+        <v>1.00059116150343</v>
+      </c>
+      <c r="L62" s="32">
+        <v>17.441615219418399</v>
+      </c>
+      <c r="M62" s="32">
+        <v>23.269343406407799</v>
+      </c>
+      <c r="N62" s="33">
+        <v>-5.8277281869894004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C63" s="32">
-        <v>77.711338681717294</v>
+        <v>71.908273498671704</v>
       </c>
       <c r="D63" s="32">
-        <v>33.021369067401899</v>
+        <v>26.648797433180199</v>
       </c>
       <c r="E63" s="32">
-        <v>7.7138425309395604</v>
+        <v>0.90512235459891999</v>
       </c>
       <c r="F63" s="32">
-        <v>-8.3537302823720001</v>
+        <v>0.53780671354925003</v>
       </c>
       <c r="G63" s="32">
-        <v>10.043015847405901</v>
+        <v>27.243466974004399</v>
       </c>
       <c r="H63" s="33">
-        <v>-18.396867669847001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+        <v>27.743040121999499</v>
+      </c>
+      <c r="I63" s="32">
+        <v>65.991317285549897</v>
+      </c>
+      <c r="J63" s="32">
+        <v>25.6191504976175</v>
+      </c>
+      <c r="K63" s="32">
+        <v>5.5166433526377396</v>
+      </c>
+      <c r="L63" s="32">
+        <v>46.861524075181798</v>
+      </c>
+      <c r="M63" s="32">
+        <v>43.988604550339602</v>
+      </c>
+      <c r="N63" s="33">
+        <v>2.8728888641949499</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C64" s="36">
-        <v>87.272867050459297</v>
+        <v>81.959804438883197</v>
       </c>
       <c r="D64" s="36">
-        <v>12.2311402378423</v>
+        <v>18.902413702729699</v>
       </c>
       <c r="E64" s="36">
-        <v>-3.2834643819762999</v>
+        <v>0.24311063811711001</v>
       </c>
       <c r="F64" s="36">
-        <v>14.853922144774</v>
+        <v>-1.10532877973</v>
       </c>
       <c r="G64" s="36">
-        <v>11.0560403368975</v>
+        <v>25.1536661133844</v>
       </c>
       <c r="H64" s="37">
-        <v>3.7978818075737202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24.048337333654501</v>
+      </c>
+      <c r="I64" s="36">
+        <v>93.351323122054197</v>
+      </c>
+      <c r="J64" s="36">
+        <v>9.1865565043847699</v>
+      </c>
+      <c r="K64" s="36">
+        <v>1.31660690327759</v>
+      </c>
+      <c r="L64" s="36">
+        <v>39.630088406922198</v>
+      </c>
+      <c r="M64" s="36">
+        <v>43.484574936638701</v>
+      </c>
+      <c r="N64" s="37">
+        <v>-3.8544865297165001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C65" s="39">
-        <v>69.031409785729707</v>
+        <v>64.128527944770298</v>
       </c>
       <c r="D65" s="39">
-        <v>35.311294963148903</v>
+        <v>35.320201929622499</v>
       </c>
       <c r="E65" s="39">
-        <v>-6.1087172216893002</v>
+        <v>1.25188317950151</v>
       </c>
       <c r="F65" s="39">
-        <v>9.0335141570348405</v>
+        <v>-0.70061305389429995</v>
       </c>
       <c r="G65" s="39">
-        <v>7.3669100877712301</v>
+        <v>21.980693966869801</v>
       </c>
       <c r="H65" s="40">
-        <v>1.6666040697334801</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>21.1440779378872</v>
+      </c>
+      <c r="I65" s="39">
+        <v>69.135063882114494</v>
+      </c>
+      <c r="J65" s="39">
+        <v>32.6611634854534</v>
+      </c>
+      <c r="K65" s="39">
+        <v>2.4044997947606399</v>
+      </c>
+      <c r="L65" s="39">
+        <v>16.4677269290172</v>
+      </c>
+      <c r="M65" s="39">
+        <v>20.668454091345701</v>
+      </c>
+      <c r="N65" s="40">
+        <v>-4.2007271623284002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C66" s="42">
-        <v>70.839698884438405</v>
+        <v>72.369350687067197</v>
       </c>
       <c r="D66" s="42">
-        <v>39.565393674683499</v>
+        <v>26.490182638223001</v>
       </c>
       <c r="E66" s="42">
-        <v>6.4666921810579403</v>
+        <v>0.91465806558925</v>
       </c>
       <c r="F66" s="42">
-        <v>5.9481827573580404</v>
+        <v>0.22580860912053</v>
       </c>
       <c r="G66" s="42">
-        <v>22.783876136085102</v>
+        <v>27.3341298143337</v>
       </c>
       <c r="H66" s="43">
-        <v>-16.835807651303998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+        <v>27.521145551571401</v>
+      </c>
+      <c r="I66" s="42">
+        <v>67.204317229877404</v>
+      </c>
+      <c r="J66" s="42">
+        <v>25.052163440762101</v>
+      </c>
+      <c r="K66" s="42">
+        <v>5.2959048395918096</v>
+      </c>
+      <c r="L66" s="42">
+        <v>45.423518786510201</v>
+      </c>
+      <c r="M66" s="42">
+        <v>42.975875134745102</v>
+      </c>
+      <c r="N66" s="43">
+        <v>2.4476144897687999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C67" s="39">
-        <v>77.898557952657796</v>
+        <v>87.864550240489805</v>
       </c>
       <c r="D67" s="39">
-        <v>24.8803209720915</v>
+        <v>20.695532458033099</v>
       </c>
       <c r="E67" s="39">
-        <v>-3.2395061667444001</v>
+        <v>0.24680298324007999</v>
       </c>
       <c r="F67" s="39">
-        <v>8.5362077191880203</v>
+        <v>-8.8068856817629992</v>
       </c>
       <c r="G67" s="39">
-        <v>8.0754938500202407</v>
+        <v>28.120817847908999</v>
       </c>
       <c r="H67" s="40">
-        <v>0.46071386878040999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+        <v>19.3139321661459</v>
+      </c>
+      <c r="I67" s="39">
+        <v>95.367371435957295</v>
+      </c>
+      <c r="J67" s="39">
+        <v>15.950143226002799</v>
+      </c>
+      <c r="K67" s="39">
+        <v>-8.2886466999699995E-2</v>
+      </c>
+      <c r="L67" s="39">
+        <v>13.229158624971401</v>
+      </c>
+      <c r="M67" s="39">
+        <v>24.463786819931901</v>
+      </c>
+      <c r="N67" s="40">
+        <v>-11.234628194960001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C68" s="39">
-        <v>77.7217943150645</v>
+        <v>84.828603527627493</v>
       </c>
       <c r="D68" s="39">
-        <v>37.482653606606398</v>
+        <v>21.774262756129499</v>
       </c>
       <c r="E68" s="39">
-        <v>-3.8026874954060998</v>
+        <v>0.78932327870504004</v>
       </c>
       <c r="F68" s="39">
-        <v>21.485663311982901</v>
+        <v>-7.3921895624619998</v>
       </c>
       <c r="G68" s="39">
-        <v>32.889065974783499</v>
+        <v>29.526945091029202</v>
       </c>
       <c r="H68" s="40">
-        <v>-11.403402662087</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+        <v>22.134755528567201</v>
+      </c>
+      <c r="I68" s="39">
+        <v>93.782324914501402</v>
+      </c>
+      <c r="J68" s="39">
+        <v>21.211313952481799</v>
+      </c>
+      <c r="K68" s="39">
+        <v>1.5662538089979201</v>
+      </c>
+      <c r="L68" s="39">
+        <v>18.447118326819702</v>
+      </c>
+      <c r="M68" s="39">
+        <v>35.007011002800901</v>
+      </c>
+      <c r="N68" s="40">
+        <v>-16.559892675981001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C69" s="39">
-        <v>89.596112089864107</v>
+        <v>80.944300760479805</v>
       </c>
       <c r="D69" s="39">
-        <v>25.4490185651015</v>
+        <v>26.832811219112401</v>
       </c>
       <c r="E69" s="39">
-        <v>-0.32648835756860001</v>
+        <v>-0.69761991768069997</v>
       </c>
       <c r="F69" s="39">
-        <v>1.8969487603719299</v>
+        <v>-7.0794920619113997</v>
       </c>
       <c r="G69" s="39">
-        <v>16.6155910602555</v>
+        <v>21.294004717053699</v>
       </c>
       <c r="H69" s="40">
-        <v>-14.718642298651</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14.2145126551423</v>
+      </c>
+      <c r="I69" s="39">
+        <v>73.938787588438302</v>
+      </c>
+      <c r="J69" s="39">
+        <v>33.080042640163299</v>
+      </c>
+      <c r="K69" s="39">
+        <v>-3.0432351743571</v>
+      </c>
+      <c r="L69" s="39">
+        <v>10.5155467980819</v>
+      </c>
+      <c r="M69" s="39">
+        <v>14.4911418523264</v>
+      </c>
+      <c r="N69" s="40">
+        <v>-3.9755950542445002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C70" s="39">
-        <v>58.323727093273497</v>
+        <v>76.152479212194507</v>
       </c>
       <c r="D70" s="39">
-        <v>34.905207447860903</v>
+        <v>19.678656612230899</v>
       </c>
       <c r="E70" s="39">
-        <v>9.7086757274621398</v>
+        <v>-0.34573237428609999</v>
       </c>
       <c r="F70" s="39">
-        <v>36.722991649156498</v>
+        <v>4.5145965498607499</v>
       </c>
       <c r="G70" s="39">
-        <v>39.660601918016503</v>
+        <v>29.793464080503298</v>
       </c>
       <c r="H70" s="40">
-        <v>-2.9376102708040999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+        <v>34.308060630363997</v>
+      </c>
+      <c r="I70" s="39">
+        <v>91.686966288764495</v>
+      </c>
+      <c r="J70" s="39">
+        <v>-56.208687023361001</v>
+      </c>
+      <c r="K70" s="39">
+        <v>-11.280737896828001</v>
+      </c>
+      <c r="L70" s="39">
+        <v>15.822210744734001</v>
+      </c>
+      <c r="M70" s="39">
+        <v>-59.980247886690002</v>
+      </c>
+      <c r="N70" s="40">
+        <v>75.802458631423903</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C71" s="39">
-        <v>83.564236856542394</v>
+        <v>82.022969392809102</v>
       </c>
       <c r="D71" s="39">
-        <v>51.393419171955401</v>
+        <v>23.556762781188599</v>
       </c>
       <c r="E71" s="39">
-        <v>-0.97971810350959998</v>
+        <v>0.74593557398064003</v>
       </c>
       <c r="F71" s="39">
-        <v>21.143277881973901</v>
+        <v>-6.3256677479782999</v>
       </c>
       <c r="G71" s="39">
-        <v>55.124581081224797</v>
+        <v>26.506617497869499</v>
       </c>
       <c r="H71" s="40">
-        <v>-33.981303197038002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+        <v>20.180949749891202</v>
+      </c>
+      <c r="I71" s="39">
+        <v>86.691326602081205</v>
+      </c>
+      <c r="J71" s="39">
+        <v>31.1729849132137</v>
+      </c>
+      <c r="K71" s="39">
+        <v>2.1408081384261499</v>
+      </c>
+      <c r="L71" s="39">
+        <v>16.847965205851601</v>
+      </c>
+      <c r="M71" s="39">
+        <v>36.853084859572597</v>
+      </c>
+      <c r="N71" s="40">
+        <v>-20.005119653721</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C72" s="39">
-        <v>82.012112837513499</v>
+        <v>83.219640884827996</v>
       </c>
       <c r="D72" s="39">
-        <v>20.537574330353799</v>
+        <v>26.744574229611398</v>
       </c>
       <c r="E72" s="39">
-        <v>4.1865854119397303</v>
+        <v>0.24945546962899001</v>
       </c>
       <c r="F72" s="39">
-        <v>4.93042144217846</v>
+        <v>-10.213670584068</v>
       </c>
       <c r="G72" s="39">
-        <v>11.6666918831184</v>
+        <v>22.692903531442099</v>
       </c>
       <c r="H72" s="40">
-        <v>-6.7362704393986998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+        <v>12.479232947373699</v>
+      </c>
+      <c r="I72" s="39">
+        <v>73.890695511777906</v>
+      </c>
+      <c r="J72" s="39">
+        <v>30.9006107383812</v>
+      </c>
+      <c r="K72" s="39">
+        <v>5.9510884931339998E-2</v>
+      </c>
+      <c r="L72" s="39">
+        <v>8.1677434715344397</v>
+      </c>
+      <c r="M72" s="39">
+        <v>13.0185606066249</v>
+      </c>
+      <c r="N72" s="40">
+        <v>-4.8508171350904004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C73" s="39">
-        <v>85.366103545152001</v>
+        <v>79.512667041258297</v>
       </c>
       <c r="D73" s="39">
-        <v>16.423931848677402</v>
+        <v>20.719169420156799</v>
       </c>
       <c r="E73" s="39">
-        <v>0.45146920708832999</v>
+        <v>0.38560069795164997</v>
       </c>
       <c r="F73" s="39">
-        <v>14.5215379432394</v>
+        <v>-0.61743715936660004</v>
       </c>
       <c r="G73" s="39">
-        <v>17.098940144160299</v>
+        <v>29.8974271063176</v>
       </c>
       <c r="H73" s="40">
-        <v>-2.5774022022056999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+        <v>29.279989946951002</v>
+      </c>
+      <c r="I73" s="39">
+        <v>86.5176553099991</v>
+      </c>
+      <c r="J73" s="39">
+        <v>-3.2342340194986998</v>
+      </c>
+      <c r="K73" s="39">
+        <v>3.7034045334094601</v>
+      </c>
+      <c r="L73" s="39">
+        <v>25.648082963996799</v>
+      </c>
+      <c r="M73" s="39">
+        <v>12.6349087879066</v>
+      </c>
+      <c r="N73" s="40">
+        <v>13.0131741760901</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C74" s="39">
-        <v>-620.66157870983</v>
+        <v>71.2189679756369</v>
       </c>
       <c r="D74" s="39">
-        <v>692.69691024727001</v>
+        <v>32.804356204448503</v>
       </c>
       <c r="E74" s="39">
-        <v>-83.512451045473995</v>
+        <v>5.1472193152240902</v>
       </c>
       <c r="F74" s="39">
-        <v>1300.4004026611201</v>
+        <v>-9.1705434953095004</v>
       </c>
       <c r="G74" s="39">
-        <v>1188.92328770531</v>
+        <v>39.772325385899997</v>
       </c>
       <c r="H74" s="40">
-        <v>111.47711517786399</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>30.601781890590601</v>
+      </c>
+      <c r="I74" s="39">
+        <v>96.424255996466897</v>
+      </c>
+      <c r="J74" s="39">
+        <v>27.0599666349468</v>
+      </c>
+      <c r="K74" s="39">
+        <v>3.96738817746771</v>
+      </c>
+      <c r="L74" s="39">
+        <v>16.7562011114067</v>
+      </c>
+      <c r="M74" s="39">
+        <v>44.207811920288101</v>
+      </c>
+      <c r="N74" s="40">
+        <v>-27.451610808881</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C75" s="42">
-        <v>79.732544646101402</v>
+        <v>69.222405024039702</v>
       </c>
       <c r="D75" s="42">
-        <v>38.139286849780497</v>
+        <v>24.641936360663699</v>
       </c>
       <c r="E75" s="42">
-        <v>8.5671833533332293</v>
+        <v>0.50623911174178005</v>
       </c>
       <c r="F75" s="42">
-        <v>16.310704067107299</v>
+        <v>5.6294195035548302</v>
       </c>
       <c r="G75" s="42">
-        <v>42.749311791961802</v>
+        <v>35.010105680196297</v>
       </c>
       <c r="H75" s="43">
-        <v>-26.438607731015999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40.639525183751203</v>
+      </c>
+      <c r="I75" s="42">
+        <v>61.567507470946303</v>
+      </c>
+      <c r="J75" s="42">
+        <v>-22.611605998371001</v>
+      </c>
+      <c r="K75" s="42">
+        <v>-4.1165167655710997</v>
+      </c>
+      <c r="L75" s="42">
+        <v>-3.7049700877868998</v>
+      </c>
+      <c r="M75" s="42">
+        <v>-68.865585380783997</v>
+      </c>
+      <c r="N75" s="43">
+        <v>65.160615292996297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C76" s="39">
-        <v>109.100078019753</v>
+        <v>68.008385545726497</v>
       </c>
       <c r="D76" s="39">
-        <v>11.302706059143601</v>
+        <v>28.144721066935201</v>
       </c>
       <c r="E76" s="39">
-        <v>-22.123025577103</v>
+        <v>0.79341339727918003</v>
       </c>
       <c r="F76" s="39">
-        <v>1.40349834722085</v>
+        <v>3.0534799900591598</v>
       </c>
       <c r="G76" s="39">
-        <v>-0.31460065330949999</v>
+        <v>43.338638280102401</v>
       </c>
       <c r="H76" s="40">
-        <v>1.71809900053037</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+        <v>46.102194105429703</v>
+      </c>
+      <c r="I76" s="39">
+        <v>69.056652568006996</v>
+      </c>
+      <c r="J76" s="39">
+        <v>29.790957768102299</v>
+      </c>
+      <c r="K76" s="39">
+        <v>3.97127259450694</v>
+      </c>
+      <c r="L76" s="39">
+        <v>35.8260902455254</v>
+      </c>
+      <c r="M76" s="39">
+        <v>38.644973176141598</v>
+      </c>
+      <c r="N76" s="40">
+        <v>-2.8188829306162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C77" s="39">
-        <v>87.100454482087699</v>
+        <v>83.045650182761804</v>
       </c>
       <c r="D77" s="39">
-        <v>13.922740878367801</v>
+        <v>17.450858288223099</v>
       </c>
       <c r="E77" s="39">
-        <v>-1.4843653976593001</v>
+        <v>0.15113968000385999</v>
       </c>
       <c r="F77" s="39">
-        <v>13.5072717654991</v>
+        <v>-0.64764815098869999</v>
       </c>
       <c r="G77" s="39">
-        <v>13.0254527084168</v>
+        <v>17.680556841385801</v>
       </c>
       <c r="H77" s="40">
-        <v>0.48181905690457999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17.0329086903971</v>
+      </c>
+      <c r="I77" s="39">
+        <v>101.772630410369</v>
+      </c>
+      <c r="J77" s="39">
+        <v>3.20451603039051</v>
+      </c>
+      <c r="K77" s="39">
+        <v>1.9761371987435301</v>
+      </c>
+      <c r="L77" s="39">
+        <v>23.725458646003698</v>
+      </c>
+      <c r="M77" s="39">
+        <v>30.678742285507099</v>
+      </c>
+      <c r="N77" s="40">
+        <v>-6.9532836395034003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C78" s="39">
-        <v>68.597354979985695</v>
+        <v>73.970663075138702</v>
       </c>
       <c r="D78" s="39">
-        <v>32.041509444182203</v>
+        <v>21.926474375105801</v>
       </c>
       <c r="E78" s="39">
-        <v>-4.3407255714474999</v>
+        <v>0.78634327640262003</v>
       </c>
       <c r="F78" s="39">
-        <v>39.8693855400563</v>
+        <v>3.3165192733528701</v>
       </c>
       <c r="G78" s="39">
-        <v>36.173545361538601</v>
+        <v>46.033999700464101</v>
       </c>
       <c r="H78" s="40">
-        <v>3.6960729410661899</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>49.350518973817003</v>
+      </c>
+      <c r="I78" s="39">
+        <v>45.429501457286797</v>
+      </c>
+      <c r="J78" s="39">
+        <v>13.417988369270301</v>
+      </c>
+      <c r="K78" s="39">
+        <v>11.390074767926199</v>
+      </c>
+      <c r="L78" s="39">
+        <v>144.89928288416999</v>
+      </c>
+      <c r="M78" s="39">
+        <v>115.13674813755701</v>
+      </c>
+      <c r="N78" s="40">
+        <v>29.762435405516602</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C79" s="42">
-        <v>82.285604942271803</v>
+        <v>76.914258558612204</v>
       </c>
       <c r="D79" s="42">
-        <v>31.477709683640501</v>
+        <v>22.237879874354501</v>
       </c>
       <c r="E79" s="42">
-        <v>1.04466053325401</v>
+        <v>0.47039607002257999</v>
       </c>
       <c r="F79" s="42">
-        <v>-6.7179777292753</v>
+        <v>0.37746549701079002</v>
       </c>
       <c r="G79" s="42">
-        <v>8.0753656369148104</v>
+        <v>29.502919938646102</v>
       </c>
       <c r="H79" s="43">
-        <v>-14.793557192792001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+        <v>29.880388523100098</v>
+      </c>
+      <c r="I79" s="42">
+        <v>60.0360885242686</v>
+      </c>
+      <c r="J79" s="42">
+        <v>24.249069240953698</v>
+      </c>
+      <c r="K79" s="42">
+        <v>7.21615402219249</v>
+      </c>
+      <c r="L79" s="42">
+        <v>68.099794027667997</v>
+      </c>
+      <c r="M79" s="42">
+        <v>59.601046047843397</v>
+      </c>
+      <c r="N79" s="43">
+        <v>8.4986882125852699</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C80" s="39">
-        <v>-273.03650092033001</v>
+        <v>73.891021610650796</v>
       </c>
       <c r="D80" s="39">
-        <v>384.25932637945402</v>
+        <v>28.088331277759899</v>
       </c>
       <c r="E80" s="39">
-        <v>-32.912720236802997</v>
+        <v>2.3183990700930699</v>
       </c>
       <c r="F80" s="39">
-        <v>654.27879823278499</v>
+        <v>-4.2977519585037003</v>
       </c>
       <c r="G80" s="39">
-        <v>632.58899448803004</v>
+        <v>26.710140007036799</v>
       </c>
       <c r="H80" s="40">
-        <v>21.689803856429101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+        <v>22.412388048533099</v>
+      </c>
+      <c r="I80" s="39">
+        <v>91.840119257321206</v>
+      </c>
+      <c r="J80" s="39">
+        <v>12.6000840693857</v>
+      </c>
+      <c r="K80" s="39">
+        <v>-0.80708926365160005</v>
+      </c>
+      <c r="L80" s="39">
+        <v>0.93784659097791001</v>
+      </c>
+      <c r="M80" s="39">
+        <v>4.57096065403314</v>
+      </c>
+      <c r="N80" s="40">
+        <v>-3.6331140630553</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C81" s="39">
-        <v>67.380330990966797</v>
+        <v>66.880673073074902</v>
       </c>
       <c r="D81" s="39">
-        <v>62.162338292679003</v>
+        <v>21.8717401047818</v>
       </c>
       <c r="E81" s="39">
-        <v>196.505039913232</v>
+        <v>4.9418533444974102</v>
       </c>
       <c r="F81" s="39">
-        <v>-156.47465996736</v>
+        <v>6.3057334776459601</v>
       </c>
       <c r="G81" s="39">
-        <v>51.330091525946997</v>
+        <v>28.722512966427502</v>
       </c>
       <c r="H81" s="40">
-        <v>-207.80475145955</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+        <v>35.028246444073503</v>
+      </c>
+      <c r="I81" s="39">
+        <v>62.932304599034403</v>
+      </c>
+      <c r="J81" s="39">
+        <v>12.498459603841001</v>
+      </c>
+      <c r="K81" s="39">
+        <v>24.214902509402901</v>
+      </c>
+      <c r="L81" s="39">
+        <v>38.511304610596298</v>
+      </c>
+      <c r="M81" s="39">
+        <v>38.156971322874497</v>
+      </c>
+      <c r="N81" s="40">
+        <v>0.35433328772180001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C82" s="39">
-        <v>81.864566648826496</v>
+        <v>84.697373559808</v>
       </c>
       <c r="D82" s="39">
-        <v>20.371401265742399</v>
+        <v>21.322065456757901</v>
       </c>
       <c r="E82" s="39">
-        <v>-3.015007755803</v>
+        <v>0.56992518959323002</v>
       </c>
       <c r="F82" s="39">
-        <v>17.037255829052299</v>
+        <v>-6.5893642061591002</v>
       </c>
       <c r="G82" s="39">
-        <v>16.3769592315438</v>
+        <v>30.140925950697302</v>
       </c>
       <c r="H82" s="40">
-        <v>0.66029659738885005</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>23.551561744538301</v>
+      </c>
+      <c r="I82" s="39">
+        <v>90.354554595698104</v>
+      </c>
+      <c r="J82" s="39">
+        <v>14.642510701579701</v>
+      </c>
+      <c r="K82" s="39">
+        <v>1.7944636300110399</v>
+      </c>
+      <c r="L82" s="39">
+        <v>24.689515544286401</v>
+      </c>
+      <c r="M82" s="39">
+        <v>31.481044471575299</v>
+      </c>
+      <c r="N82" s="40">
+        <v>-6.7915289272889003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C83" s="42">
-        <v>78.316196735004496</v>
+        <v>72.328031267939195</v>
       </c>
       <c r="D83" s="42">
-        <v>31.315228636174901</v>
+        <v>27.047637189343501</v>
       </c>
       <c r="E83" s="42">
-        <v>-2.313840681277</v>
+        <v>0.56809294652858</v>
       </c>
       <c r="F83" s="42">
-        <v>0.31842831650087999</v>
+        <v>5.6238596188659999E-2</v>
       </c>
       <c r="G83" s="42">
-        <v>7.6257472741565797</v>
+        <v>27.118884540539302</v>
       </c>
       <c r="H83" s="43">
-        <v>-7.3074476156076003</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+        <v>27.1293954236274</v>
+      </c>
+      <c r="I83" s="42">
+        <v>66.242963330222395</v>
+      </c>
+      <c r="J83" s="42">
+        <v>26.6985085471429</v>
+      </c>
+      <c r="K83" s="42">
+        <v>3.9784532758835001</v>
+      </c>
+      <c r="L83" s="42">
+        <v>47.548444959712299</v>
+      </c>
+      <c r="M83" s="42">
+        <v>44.468336930052097</v>
+      </c>
+      <c r="N83" s="43">
+        <v>3.0800748467511601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C84" s="39">
-        <v>87.208110853702806</v>
+        <v>85.470329658267801</v>
       </c>
       <c r="D84" s="39">
-        <v>40.572858851186297</v>
+        <v>26.2062953658174</v>
       </c>
       <c r="E84" s="39">
-        <v>5.6217329731575498</v>
+        <v>0.41889068539768998</v>
       </c>
       <c r="F84" s="39">
-        <v>-10.692777780517</v>
+        <v>-12.095515709482999</v>
       </c>
       <c r="G84" s="39">
-        <v>22.718771044257402</v>
+        <v>31.188586474012801</v>
       </c>
       <c r="H84" s="40">
-        <v>-33.411548823088999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+        <v>19.093070764530001</v>
+      </c>
+      <c r="I84" s="39">
+        <v>77.280429550824095</v>
+      </c>
+      <c r="J84" s="39">
+        <v>29.738558058997899</v>
+      </c>
+      <c r="K84" s="39">
+        <v>0.45858529463817999</v>
+      </c>
+      <c r="L84" s="39">
+        <v>22.794638639044599</v>
+      </c>
+      <c r="M84" s="39">
+        <v>30.272211543504799</v>
+      </c>
+      <c r="N84" s="40">
+        <v>-7.4775729044601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C85" s="39">
-        <v>117.490609977906</v>
+        <v>122.32225371793299</v>
       </c>
       <c r="D85" s="39">
-        <v>16.997071589977701</v>
+        <v>13.0187702824522</v>
       </c>
       <c r="E85" s="39">
         <v>0</v>
       </c>
       <c r="F85" s="39">
-        <v>9.0548946171099107</v>
+        <v>-35.341024000384998</v>
       </c>
       <c r="G85" s="39">
-        <v>43.542576204972903</v>
+        <v>42.956995865508297</v>
       </c>
       <c r="H85" s="40">
-        <v>-34.487681592660003</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+        <v>7.6159718651232504</v>
+      </c>
+      <c r="I85" s="39">
+        <v>108.751825857234</v>
+      </c>
+      <c r="J85" s="39">
+        <v>4.3009973625650604</v>
+      </c>
+      <c r="K85" s="39">
+        <v>0</v>
+      </c>
+      <c r="L85" s="39">
+        <v>24.2893561772831</v>
+      </c>
+      <c r="M85" s="39">
+        <v>37.342179397081999</v>
+      </c>
+      <c r="N85" s="40">
+        <v>-13.052823219799</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C86" s="39">
-        <v>-80.853763422228994</v>
+        <v>80.299548530374096</v>
       </c>
       <c r="D86" s="39">
-        <v>184.852481263502</v>
+        <v>24.349148412412699</v>
       </c>
       <c r="E86" s="39">
-        <v>-18.487356682363998</v>
+        <v>1.3364431817209801</v>
       </c>
       <c r="F86" s="39">
-        <v>307.90641840329101</v>
+        <v>-5.9851401245076996</v>
       </c>
       <c r="G86" s="39">
-        <v>293.41778039188898</v>
+        <v>28.583338032044701</v>
       </c>
       <c r="H86" s="40">
-        <v>14.488638061573401</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+        <v>22.598197907536999</v>
+      </c>
+      <c r="I86" s="39">
+        <v>92.919074366725994</v>
+      </c>
+      <c r="J86" s="39">
+        <v>14.161150377122</v>
+      </c>
+      <c r="K86" s="39">
+        <v>2.418853549246E-2</v>
+      </c>
+      <c r="L86" s="39">
+        <v>11.5486552837438</v>
+      </c>
+      <c r="M86" s="39">
+        <v>18.6530685630843</v>
+      </c>
+      <c r="N86" s="40">
+        <v>-7.1044132793405002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C87" s="39">
-        <v>94.628808538017793</v>
+        <v>73.902323459736706</v>
       </c>
       <c r="D87" s="39">
-        <v>19.207053917731201</v>
+        <v>27.823948768859299</v>
       </c>
       <c r="E87" s="39">
-        <v>-5.1704477175749997</v>
+        <v>2.2282404704705199</v>
       </c>
       <c r="F87" s="39">
-        <v>14.364448872411799</v>
+        <v>-3.9545126990665</v>
       </c>
       <c r="G87" s="39">
-        <v>23.029865827547301</v>
+        <v>24.573964489255999</v>
       </c>
       <c r="H87" s="40">
-        <v>-8.6654169544535993</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+        <v>20.133919153689899</v>
+      </c>
+      <c r="I87" s="39">
+        <v>86.237563377604104</v>
+      </c>
+      <c r="J87" s="39">
+        <v>22.626544086825099</v>
+      </c>
+      <c r="K87" s="39">
+        <v>4.3462496382579996</v>
+      </c>
+      <c r="L87" s="39">
+        <v>17.305579433220601</v>
+      </c>
+      <c r="M87" s="39">
+        <v>30.515936535907699</v>
+      </c>
+      <c r="N87" s="40">
+        <v>-13.210357102687</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C88" s="39">
-        <v>86.646731072964599</v>
+        <v>82.917980909388206</v>
       </c>
       <c r="D88" s="39">
-        <v>9.3151950269491604</v>
+        <v>16.453071643559301</v>
       </c>
       <c r="E88" s="39">
-        <v>0.27328117679108999</v>
+        <v>0.63178782659253996</v>
       </c>
       <c r="F88" s="39">
-        <v>27.3820806779446</v>
+        <v>-2.8403795400000001E-3</v>
       </c>
       <c r="G88" s="39">
-        <v>24.121684061593701</v>
+        <v>29.377315852968898</v>
       </c>
       <c r="H88" s="40">
-        <v>3.2603966170179102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+        <v>29.374475473429001</v>
+      </c>
+      <c r="I88" s="39">
+        <v>92.923137551759098</v>
+      </c>
+      <c r="J88" s="39">
+        <v>-0.2990183394323</v>
+      </c>
+      <c r="K88" s="39">
+        <v>5.9262036599640604</v>
+      </c>
+      <c r="L88" s="39">
+        <v>39.499079291277198</v>
+      </c>
+      <c r="M88" s="39">
+        <v>38.049402163567997</v>
+      </c>
+      <c r="N88" s="40">
+        <v>1.4496771277091201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C89" s="39">
-        <v>71.031647117828001</v>
+        <v>65.181591659989607</v>
       </c>
       <c r="D89" s="39">
-        <v>30.344604079931099</v>
+        <v>32.580529731711003</v>
       </c>
       <c r="E89" s="39">
-        <v>-5.9709288924233004</v>
+        <v>0.50322293373572002</v>
       </c>
       <c r="F89" s="39">
-        <v>12.654403304901599</v>
+        <v>1.73465567456376</v>
       </c>
       <c r="G89" s="39">
-        <v>8.1377500969133791</v>
+        <v>23.3216714632565</v>
       </c>
       <c r="H89" s="40">
-        <v>4.5166532082622597</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25.056327137820201</v>
+      </c>
+      <c r="I89" s="39">
+        <v>67.184595448986002</v>
+      </c>
+      <c r="J89" s="39">
+        <v>29.767807853644801</v>
+      </c>
+      <c r="K89" s="39">
+        <v>2.5148505985848701</v>
+      </c>
+      <c r="L89" s="39">
+        <v>28.256367173980699</v>
+      </c>
+      <c r="M89" s="39">
+        <v>27.723621075196402</v>
+      </c>
+      <c r="N89" s="40">
+        <v>0.53274609878432999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C90" s="42">
-        <v>80.530216770537194</v>
+        <v>75.852152104585898</v>
       </c>
       <c r="D90" s="42">
-        <v>36.171197710847203</v>
+        <v>22.127812081686098</v>
       </c>
       <c r="E90" s="42">
-        <v>17.988137522320301</v>
+        <v>0.76130873698601997</v>
       </c>
       <c r="F90" s="42">
-        <v>-24.582833860815001</v>
+        <v>1.258727076742</v>
       </c>
       <c r="G90" s="42">
-        <v>10.091013650326101</v>
+        <v>30.9135169190006</v>
       </c>
       <c r="H90" s="43">
-        <v>-34.674062356891</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+        <v>32.172247196669403</v>
+      </c>
+      <c r="I90" s="42">
+        <v>58.745019554745902</v>
+      </c>
+      <c r="J90" s="42">
+        <v>23.6619179590401</v>
+      </c>
+      <c r="K90" s="42">
+        <v>8.0205436948059905</v>
+      </c>
+      <c r="L90" s="42">
+        <v>69.295387183390403</v>
+      </c>
+      <c r="M90" s="42">
+        <v>59.7228063957754</v>
+      </c>
+      <c r="N90" s="43">
+        <v>9.5725187914080703</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C91" s="39">
-        <v>76.384549765477104</v>
+        <v>78.115749561326098</v>
       </c>
       <c r="D91" s="39">
-        <v>36.930200685381202</v>
+        <v>27.8131645011369</v>
       </c>
       <c r="E91" s="39">
-        <v>2.3689258114352398</v>
+        <v>0.16290056226222999</v>
       </c>
       <c r="F91" s="39">
-        <v>7.7478977108542297</v>
+        <v>-6.0918146247251999</v>
       </c>
       <c r="G91" s="39">
-        <v>23.437291183174199</v>
+        <v>30.240183998017901</v>
       </c>
       <c r="H91" s="40">
-        <v>-15.689393472698001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24.148369373292599</v>
+      </c>
+      <c r="I91" s="39">
+        <v>70.120401945727195</v>
+      </c>
+      <c r="J91" s="39">
+        <v>19.2195065022158</v>
+      </c>
+      <c r="K91" s="39">
+        <v>-0.20723605323819999</v>
+      </c>
+      <c r="L91" s="39">
+        <v>16.580785549055999</v>
+      </c>
+      <c r="M91" s="39">
+        <v>5.71345794376073</v>
+      </c>
+      <c r="N91" s="40">
+        <v>10.8673276052952</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C92" s="39">
-        <v>115.56820909431499</v>
+        <v>81.821600164113505</v>
       </c>
       <c r="D92" s="39">
-        <v>23.0389167692218</v>
+        <v>29.4024492627386</v>
       </c>
       <c r="E92" s="39">
-        <v>0.19914804283519</v>
+        <v>0.80085494440939997</v>
       </c>
       <c r="F92" s="39">
-        <v>38.684926388960498</v>
+        <v>-12.024904371261</v>
       </c>
       <c r="G92" s="39">
-        <v>77.491200312322505</v>
+        <v>30.3906806220023</v>
       </c>
       <c r="H92" s="40">
-        <v>-38.806273926048</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+        <v>18.365776250740801</v>
+      </c>
+      <c r="I92" s="39">
+        <v>75.660482166761597</v>
+      </c>
+      <c r="J92" s="39">
+        <v>35.742092815511398</v>
+      </c>
+      <c r="K92" s="39">
+        <v>0.34412527155064998</v>
+      </c>
+      <c r="L92" s="39">
+        <v>22.492647251452599</v>
+      </c>
+      <c r="M92" s="39">
+        <v>34.239347505276299</v>
+      </c>
+      <c r="N92" s="40">
+        <v>-11.746700253824001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C93" s="39">
-        <v>481.088787698575</v>
+        <v>93.641552233029302</v>
       </c>
       <c r="D93" s="39">
-        <v>-176.86514121324001</v>
+        <v>21.623343323664301</v>
       </c>
       <c r="E93" s="39">
-        <v>184.09706660390299</v>
+        <v>0.10743717209497999</v>
       </c>
       <c r="F93" s="39">
-        <v>-214.23242061774999</v>
+        <v>-15.372332728789001</v>
       </c>
       <c r="G93" s="39">
-        <v>174.08829248983099</v>
+        <v>56.405377702842699</v>
       </c>
       <c r="H93" s="40">
-        <v>-388.32071315515998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+        <v>41.033044974054</v>
+      </c>
+      <c r="I93" s="39">
+        <v>104.830271637637</v>
+      </c>
+      <c r="J93" s="39">
+        <v>12.786283390216401</v>
+      </c>
+      <c r="K93" s="39">
+        <v>1.2049613828569501</v>
+      </c>
+      <c r="L93" s="39">
+        <v>37.825182866858199</v>
+      </c>
+      <c r="M93" s="39">
+        <v>56.646699277568501</v>
+      </c>
+      <c r="N93" s="40">
+        <v>-18.82151641071</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C94" s="39">
-        <v>69.425897412662195</v>
+        <v>60.565372647413099</v>
       </c>
       <c r="D94" s="39">
-        <v>29.692095105623</v>
+        <v>23.953659425781801</v>
       </c>
       <c r="E94" s="39">
-        <v>-15.659653212978</v>
+        <v>1.2789359901777</v>
       </c>
       <c r="F94" s="39">
-        <v>9.6874994458698804</v>
+        <v>14.202031936627399</v>
       </c>
       <c r="G94" s="39">
-        <v>-6.9617535082856996</v>
+        <v>103.56214960226001</v>
       </c>
       <c r="H94" s="40">
-        <v>16.649252946186099</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+        <v>117.764181538887</v>
+      </c>
+      <c r="I94" s="39">
+        <v>54.615250056181402</v>
+      </c>
+      <c r="J94" s="39">
+        <v>24.413135771008701</v>
+      </c>
+      <c r="K94" s="39">
+        <v>4.5166538315631701</v>
+      </c>
+      <c r="L94" s="39">
+        <v>111.82956261129701</v>
+      </c>
+      <c r="M94" s="39">
+        <v>95.374602270050602</v>
+      </c>
+      <c r="N94" s="40">
+        <v>16.4549603412467</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C95" s="39">
-        <v>72.173917714632694</v>
+        <v>81.482420702945006</v>
       </c>
       <c r="D95" s="39">
-        <v>47.927167102724702</v>
+        <v>28.818159718727301</v>
       </c>
       <c r="E95" s="39">
-        <v>-1.7460155654142</v>
+        <v>0.59507089185672002</v>
       </c>
       <c r="F95" s="39">
-        <v>17.6559427104512</v>
+        <v>-10.895651313528999</v>
       </c>
       <c r="G95" s="39">
-        <v>36.0110119637312</v>
+        <v>29.849291236660001</v>
       </c>
       <c r="H95" s="40">
-        <v>-18.355069249389999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>18.953639923130901</v>
+      </c>
+      <c r="I95" s="39">
+        <v>70.873580633378793</v>
+      </c>
+      <c r="J95" s="39">
+        <v>33.733594644523798</v>
+      </c>
+      <c r="K95" s="39">
+        <v>-4.0436155683599997E-2</v>
+      </c>
+      <c r="L95" s="39">
+        <v>20.877375387916501</v>
+      </c>
+      <c r="M95" s="39">
+        <v>25.4441145101354</v>
+      </c>
+      <c r="N95" s="40">
+        <v>-4.5667391222190004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C96" s="42">
-        <v>84.007208907701397</v>
+        <v>77.218607851431599</v>
       </c>
       <c r="D96" s="42">
-        <v>36.995580019525001</v>
+        <v>26.3259159756423</v>
       </c>
       <c r="E96" s="42">
-        <v>-17.124309628443001</v>
+        <v>2.6809186739192801</v>
       </c>
       <c r="F96" s="42">
-        <v>28.2415053001804</v>
+        <v>-6.2254425009930996</v>
       </c>
       <c r="G96" s="42">
-        <v>32.119984457341097</v>
+        <v>38.359961238779299</v>
       </c>
       <c r="H96" s="43">
-        <v>-3.8784791566301999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+        <v>32.134518737786202</v>
+      </c>
+      <c r="I96" s="42">
+        <v>88.504991563046701</v>
+      </c>
+      <c r="J96" s="42">
+        <v>23.9867561268121</v>
+      </c>
+      <c r="K96" s="42">
+        <v>4.2082548987032604</v>
+      </c>
+      <c r="L96" s="42">
+        <v>27.256670462722301</v>
+      </c>
+      <c r="M96" s="42">
+        <v>43.956673051284199</v>
+      </c>
+      <c r="N96" s="43">
+        <v>-16.700002588562</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C97" s="39">
-        <v>75.752585898935706</v>
+        <v>79.934697283877597</v>
       </c>
       <c r="D97" s="39">
-        <v>48.7959247700039</v>
+        <v>25.2584680550389</v>
       </c>
       <c r="E97" s="39">
-        <v>1.8420259120515801</v>
+        <v>0.31083515337581002</v>
       </c>
       <c r="F97" s="39">
-        <v>16.678723471928301</v>
+        <v>-5.5040004922922998</v>
       </c>
       <c r="G97" s="39">
-        <v>43.071503585372</v>
+        <v>25.9403121862704</v>
       </c>
       <c r="H97" s="40">
-        <v>-26.392780112240001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+        <v>20.436311693978102</v>
+      </c>
+      <c r="I97" s="39">
+        <v>82.050670591004106</v>
+      </c>
+      <c r="J97" s="39">
+        <v>17.3563723086674</v>
+      </c>
+      <c r="K97" s="39">
+        <v>-1.3829925623351</v>
+      </c>
+      <c r="L97" s="39">
+        <v>13.1577509408009</v>
+      </c>
+      <c r="M97" s="39">
+        <v>11.1818012781373</v>
+      </c>
+      <c r="N97" s="40">
+        <v>1.97594966266359</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C98" s="39">
-        <v>95.336510753327303</v>
+        <v>80.963763061394701</v>
       </c>
       <c r="D98" s="39">
-        <v>20.0660760193736</v>
+        <v>21.4313062549828</v>
       </c>
       <c r="E98" s="39">
-        <v>14.910389728866701</v>
+        <v>5.7533904163437199</v>
       </c>
       <c r="F98" s="39">
-        <v>9.7325730957957006</v>
+        <v>-8.1484597327212001</v>
       </c>
       <c r="G98" s="39">
-        <v>37.8542039528758</v>
+        <v>25.144606392483201</v>
       </c>
       <c r="H98" s="40">
-        <v>-28.121630853420999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>16.996146659762001</v>
+      </c>
+      <c r="I98" s="39">
+        <v>95.460291103117498</v>
+      </c>
+      <c r="J98" s="39">
+        <v>2.5091602619915498</v>
+      </c>
+      <c r="K98" s="39">
+        <v>27.506170938623999</v>
+      </c>
+      <c r="L98" s="39">
+        <v>19.435432369909201</v>
+      </c>
+      <c r="M98" s="39">
+        <v>44.911054673642298</v>
+      </c>
+      <c r="N98" s="40">
+        <v>-25.475622303733001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C99" s="42">
-        <v>114.694362402983</v>
+        <v>104.208801690813</v>
       </c>
       <c r="D99" s="42">
-        <v>61.017039444451001</v>
+        <v>15.446876427092199</v>
       </c>
       <c r="E99" s="42">
-        <v>17.270046304782699</v>
+        <v>-0.201120267825</v>
       </c>
       <c r="F99" s="42">
-        <v>-3.5275340749277002</v>
+        <v>-19.45455785008</v>
       </c>
       <c r="G99" s="42">
-        <v>79.6315258487449</v>
+        <v>40.034151506972002</v>
       </c>
       <c r="H99" s="43">
-        <v>-83.159059911013998</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+        <v>20.579593656892101</v>
+      </c>
+      <c r="I99" s="42">
+        <v>130.82962488622101</v>
+      </c>
+      <c r="J99" s="42">
+        <v>-62.393961981563002</v>
+      </c>
+      <c r="K99" s="42">
+        <v>-14.377820942704</v>
+      </c>
+      <c r="L99" s="42">
+        <v>39.493406032360902</v>
+      </c>
+      <c r="M99" s="42">
+        <v>-6.4487520056843</v>
+      </c>
+      <c r="N99" s="43">
+        <v>45.942158038045598</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="44"/>
       <c r="B100" s="45"/>
       <c r="C100" s="46"/>
@@ -3783,10 +5571,16 @@
       <c r="F100" s="46"/>
       <c r="G100" s="46"/>
       <c r="H100" s="46"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I100" s="46"/>
+      <c r="J100" s="46"/>
+      <c r="K100" s="46"/>
+      <c r="L100" s="46"/>
+      <c r="M100" s="46"/>
+      <c r="N100" s="46"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -3795,10 +5589,16 @@
       <c r="F101" s="49"/>
       <c r="G101" s="49"/>
       <c r="H101" s="49"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I101" s="49"/>
+      <c r="J101" s="49"/>
+      <c r="K101" s="49"/>
+      <c r="L101" s="49"/>
+      <c r="M101" s="49"/>
+      <c r="N101" s="49"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -3807,10 +5607,16 @@
       <c r="F102" s="49"/>
       <c r="G102" s="49"/>
       <c r="H102" s="49"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I102" s="49"/>
+      <c r="J102" s="49"/>
+      <c r="K102" s="49"/>
+      <c r="L102" s="49"/>
+      <c r="M102" s="49"/>
+      <c r="N102" s="49"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -3819,10 +5625,16 @@
       <c r="F103" s="49"/>
       <c r="G103" s="49"/>
       <c r="H103" s="49"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I103" s="49"/>
+      <c r="J103" s="49"/>
+      <c r="K103" s="49"/>
+      <c r="L103" s="49"/>
+      <c r="M103" s="49"/>
+      <c r="N103" s="49"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -3831,10 +5643,16 @@
       <c r="F104" s="49"/>
       <c r="G104" s="49"/>
       <c r="H104" s="49"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I104" s="49"/>
+      <c r="J104" s="49"/>
+      <c r="K104" s="49"/>
+      <c r="L104" s="49"/>
+      <c r="M104" s="49"/>
+      <c r="N104" s="49"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -3843,8 +5661,14 @@
       <c r="F105" s="49"/>
       <c r="G105" s="49"/>
       <c r="H105" s="49"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I105" s="49"/>
+      <c r="J105" s="49"/>
+      <c r="K105" s="49"/>
+      <c r="L105" s="49"/>
+      <c r="M105" s="49"/>
+      <c r="N105" s="49"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B106" s="48"/>
       <c r="C106" s="49"/>
       <c r="D106" s="49"/>
@@ -3852,8 +5676,14 @@
       <c r="F106" s="49"/>
       <c r="G106" s="49"/>
       <c r="H106" s="49"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I106" s="49"/>
+      <c r="J106" s="49"/>
+      <c r="K106" s="49"/>
+      <c r="L106" s="49"/>
+      <c r="M106" s="49"/>
+      <c r="N106" s="49"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B107" s="48"/>
       <c r="C107" s="49"/>
       <c r="D107" s="49"/>
@@ -3861,10 +5691,16 @@
       <c r="F107" s="49"/>
       <c r="G107" s="49"/>
       <c r="H107" s="49"/>
-    </row>
-    <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I107" s="49"/>
+      <c r="J107" s="49"/>
+      <c r="K107" s="49"/>
+      <c r="L107" s="49"/>
+      <c r="M107" s="49"/>
+      <c r="N107" s="49"/>
+    </row>
+    <row r="108" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -3872,8 +5708,14 @@
       <c r="F108" s="49"/>
       <c r="G108" s="49"/>
       <c r="H108" s="49"/>
-    </row>
-    <row r="109" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I108" s="49"/>
+      <c r="J108" s="49"/>
+      <c r="K108" s="49"/>
+      <c r="L108" s="49"/>
+      <c r="M108" s="49"/>
+      <c r="N108" s="49"/>
+    </row>
+    <row r="109" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B109" s="50"/>
       <c r="C109" s="49"/>
       <c r="D109" s="49"/>
@@ -3881,10 +5723,16 @@
       <c r="F109" s="49"/>
       <c r="G109" s="49"/>
       <c r="H109" s="49"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I109" s="49"/>
+      <c r="J109" s="49"/>
+      <c r="K109" s="49"/>
+      <c r="L109" s="49"/>
+      <c r="M109" s="49"/>
+      <c r="N109" s="49"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -3892,10 +5740,16 @@
       <c r="F110" s="49"/>
       <c r="G110" s="49"/>
       <c r="H110" s="49"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I110" s="49"/>
+      <c r="J110" s="49"/>
+      <c r="K110" s="49"/>
+      <c r="L110" s="49"/>
+      <c r="M110" s="49"/>
+      <c r="N110" s="49"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -3903,8 +5757,14 @@
       <c r="F111" s="49"/>
       <c r="G111" s="49"/>
       <c r="H111" s="49"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I111" s="49"/>
+      <c r="J111" s="49"/>
+      <c r="K111" s="49"/>
+      <c r="L111" s="49"/>
+      <c r="M111" s="49"/>
+      <c r="N111" s="49"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B112" s="2"/>
       <c r="C112" s="49"/>
       <c r="D112" s="49"/>
@@ -3912,10 +5772,16 @@
       <c r="F112" s="49"/>
       <c r="G112" s="49"/>
       <c r="H112" s="49"/>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I112" s="49"/>
+      <c r="J112" s="49"/>
+      <c r="K112" s="49"/>
+      <c r="L112" s="49"/>
+      <c r="M112" s="49"/>
+      <c r="N112" s="49"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -3923,10 +5789,16 @@
       <c r="F113" s="49"/>
       <c r="G113" s="49"/>
       <c r="H113" s="49"/>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I113" s="49"/>
+      <c r="J113" s="49"/>
+      <c r="K113" s="49"/>
+      <c r="L113" s="49"/>
+      <c r="M113" s="49"/>
+      <c r="N113" s="49"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -3934,8 +5806,14 @@
       <c r="F114" s="49"/>
       <c r="G114" s="49"/>
       <c r="H114" s="49"/>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I114" s="49"/>
+      <c r="J114" s="49"/>
+      <c r="K114" s="49"/>
+      <c r="L114" s="49"/>
+      <c r="M114" s="49"/>
+      <c r="N114" s="49"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B115" s="2"/>
       <c r="C115" s="49"/>
       <c r="D115" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab17.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab17.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab17.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab17.xlsx
@@ -535,9 +535,6 @@
     <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
-    <t>Source : calculs de l'auteur basés sur la base de données des Perspectives de l'économie mondiale du FMI, avril 2022. Les chiffres sont ajustés de sorte que la consommation, la formation de capital, les variations des stocks et la balance extérieure en pourcentage du PIB totalisent 100.</t>
-  </si>
-  <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
   </si>
   <si>
@@ -551,6 +548,9 @@
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Source : Calculs de l'auteur basés sur la base de données des Perspectives de l'économie mondiale du FMI, avril 2022. Les chiffres sont ajustés de sorte que la consommation, la formation de capital, les variations des stocks et la balance extérieure en pourcentage du PIB totalisent 100.</t>
   </si>
 </sst>
 </file>
@@ -5652,7 +5652,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="108" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -5781,7 +5781,7 @@
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab17.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -61,15 +61,15 @@
     <t>Variations des stocks (% de la croissance du PIB sur 10 ans), 2009-19</t>
   </si>
   <si>
+    <t>Balance extérieur (% de la croissance du PIB sur 10 ans), 2009-19</t>
+  </si>
+  <si>
+    <t>Importations de biens et services (% de croissance du PIB sur 10 ans), 2009-19</t>
+  </si>
+  <si>
     <t>Exportations de biens et services (% de croissance du PIB sur 10 ans), 2009-19</t>
   </si>
   <si>
-    <t>Importations de biens et services (% de croissance du PIB sur 10 ans), 2009-19</t>
-  </si>
-  <si>
-    <t>Balance extérieur (% de la croissance du PIB sur 10 ans), 2009-19</t>
-  </si>
-  <si>
     <t>AGO</t>
   </si>
   <si>
@@ -535,7 +535,10 @@
     <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Source : Calculs de l'auteur basés sur la base de données des Perspectives de l'économie mondiale du FMI, avril 2022. Les chiffres sont ajustés de sorte que la consommation, la formation de capital, les variations des stocks et la balance extérieure en pourcentage du PIB totalisent 100.</t>
+  </si>
+  <si>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -548,9 +551,6 @@
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Source : Calculs de l'auteur basés sur la base de données des Perspectives de l'économie mondiale du FMI, avril 2022. Les chiffres sont ajustés de sorte que la consommation, la formation de capital, les variations des stocks et la balance extérieure en pourcentage du PIB totalisent 100.</t>
   </si>
 </sst>
 </file>
@@ -1407,13 +1407,13 @@
         <v>-0.1189401228986</v>
       </c>
       <c r="L3" s="12">
-        <v>-30.712534935186</v>
+        <v>99.131282161739193</v>
       </c>
       <c r="M3" s="12">
         <v>-129.84381709693</v>
       </c>
       <c r="N3" s="13">
-        <v>99.131282161739193</v>
+        <v>-30.712534935186</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -1451,13 +1451,13 @@
         <v>-2.2854951125079999</v>
       </c>
       <c r="L4" s="15">
-        <v>38.920336566801303</v>
+        <v>5.5707956436550203</v>
       </c>
       <c r="M4" s="15">
         <v>33.3495409231463</v>
       </c>
       <c r="N4" s="16">
-        <v>5.5707956436550203</v>
+        <v>38.920336566801303</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -1539,13 +1539,13 @@
         <v>-28.570464394586999</v>
       </c>
       <c r="L6" s="19">
-        <v>71.527865470614103</v>
+        <v>25.475504248242299</v>
       </c>
       <c r="M6" s="19">
         <v>46.0523612223691</v>
       </c>
       <c r="N6" s="20">
-        <v>25.475504248242299</v>
+        <v>71.527865470614103</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1583,13 +1583,13 @@
         <v>0.13129780005887001</v>
       </c>
       <c r="L7" s="19">
-        <v>16.340633604571899</v>
+        <v>-35.162983948555997</v>
       </c>
       <c r="M7" s="19">
         <v>51.503617553128201</v>
       </c>
       <c r="N7" s="20">
-        <v>-35.162983948555997</v>
+        <v>16.340633604571899</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1627,13 +1627,13 @@
         <v>2.5790866269034098</v>
       </c>
       <c r="L8" s="19">
-        <v>39.471208309735303</v>
+        <v>-99.066628364438003</v>
       </c>
       <c r="M8" s="19">
         <v>138.537836674174</v>
       </c>
       <c r="N8" s="20">
-        <v>-99.066628364438003</v>
+        <v>39.471208309735303</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1671,13 +1671,13 @@
         <v>6.31458506088424</v>
       </c>
       <c r="L9" s="19">
-        <v>23.552019364878301</v>
+        <v>5.9868937035301899</v>
       </c>
       <c r="M9" s="19">
         <v>17.565125661347899</v>
       </c>
       <c r="N9" s="20">
-        <v>5.9868937035301899</v>
+        <v>23.552019364878301</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1715,13 +1715,13 @@
         <v>8.2357065073190192</v>
       </c>
       <c r="L10" s="19">
-        <v>38.635795936159802</v>
+        <v>1.3528750411937001</v>
       </c>
       <c r="M10" s="19">
         <v>37.282920894966097</v>
       </c>
       <c r="N10" s="20">
-        <v>1.3528750411937001</v>
+        <v>38.635795936159802</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1759,13 +1759,13 @@
         <v>2.5888865310899498</v>
       </c>
       <c r="L11" s="15">
-        <v>43.943411602788501</v>
+        <v>2.55281291811594</v>
       </c>
       <c r="M11" s="15">
         <v>41.390598684672597</v>
       </c>
       <c r="N11" s="16">
-        <v>2.55281291811594</v>
+        <v>43.943411602788501</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1847,13 +1847,13 @@
         <v>5.5777836731348804</v>
       </c>
       <c r="L13" s="26">
-        <v>26.136541683329298</v>
+        <v>14.7591368490368</v>
       </c>
       <c r="M13" s="26">
         <v>11.377404834292401</v>
       </c>
       <c r="N13" s="27">
-        <v>14.7591368490368</v>
+        <v>26.136541683329298</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1891,13 +1891,13 @@
         <v>-1.0524974579999999E-14</v>
       </c>
       <c r="L14" s="19">
-        <v>23.4830170221991</v>
+        <v>-2.6060172402470001</v>
       </c>
       <c r="M14" s="19">
         <v>26.089034262446301</v>
       </c>
       <c r="N14" s="20">
-        <v>-2.6060172402470001</v>
+        <v>23.4830170221991</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -1935,13 +1935,13 @@
         <v>-0.37386938188270002</v>
       </c>
       <c r="L15" s="19">
-        <v>20.365304936469101</v>
+        <v>-4.9622603572401998</v>
       </c>
       <c r="M15" s="19">
         <v>25.327565293709299</v>
       </c>
       <c r="N15" s="20">
-        <v>-4.9622603572401998</v>
+        <v>20.365304936469101</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -1979,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="L16" s="19">
-        <v>-34.133787121711997</v>
+        <v>38.7649759976835</v>
       </c>
       <c r="M16" s="19">
         <v>-72.898763119394999</v>
       </c>
       <c r="N16" s="20">
-        <v>38.7649759976835</v>
+        <v>-34.133787121711997</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -2023,13 +2023,13 @@
         <v>-2.0836329590704001</v>
       </c>
       <c r="L17" s="12">
-        <v>35.6737946954892</v>
+        <v>-2.8747298411576998</v>
       </c>
       <c r="M17" s="12">
         <v>38.548524536647001</v>
       </c>
       <c r="N17" s="13">
-        <v>-2.8747298411576998</v>
+        <v>35.6737946954892</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -2067,13 +2067,13 @@
         <v>-228.1668965973</v>
       </c>
       <c r="L18" s="12">
-        <v>251.84894563532399</v>
+        <v>990.54610620226799</v>
       </c>
       <c r="M18" s="12">
         <v>-738.69716056694006</v>
       </c>
       <c r="N18" s="13">
-        <v>990.54610620226799</v>
+        <v>251.84894563532399</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -2111,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="L19" s="15">
-        <v>24.460555383686099</v>
+        <v>2.1153506340663402</v>
       </c>
       <c r="M19" s="15">
         <v>22.3452047496198</v>
       </c>
       <c r="N19" s="16">
-        <v>2.1153506340663402</v>
+        <v>24.460555383686099</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -2155,13 +2155,13 @@
         <v>-46.704917331235002</v>
       </c>
       <c r="L20" s="12">
-        <v>130.45430307862199</v>
+        <v>49.259045657597703</v>
       </c>
       <c r="M20" s="12">
         <v>81.195257421024195</v>
       </c>
       <c r="N20" s="13">
-        <v>49.259045657597703</v>
+        <v>130.45430307862199</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -2199,13 +2199,13 @@
         <v>0</v>
       </c>
       <c r="L21" s="12">
-        <v>16.186923898127301</v>
+        <v>-11.734746440917</v>
       </c>
       <c r="M21" s="12">
         <v>27.921670339044301</v>
       </c>
       <c r="N21" s="13">
-        <v>-11.734746440917</v>
+        <v>16.186923898127301</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2243,13 +2243,13 @@
         <v>0</v>
       </c>
       <c r="L22" s="19">
-        <v>45.3098956100471</v>
+        <v>21.085709145532</v>
       </c>
       <c r="M22" s="19">
         <v>24.2241864645144</v>
       </c>
       <c r="N22" s="20">
-        <v>21.085709145532</v>
+        <v>45.3098956100471</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2287,13 +2287,13 @@
         <v>-19.203353226775</v>
       </c>
       <c r="L23" s="26">
-        <v>46.0812615391173</v>
+        <v>67.861094095469497</v>
       </c>
       <c r="M23" s="26">
         <v>-21.779832556352002</v>
       </c>
       <c r="N23" s="27">
-        <v>67.861094095469497</v>
+        <v>46.0812615391173</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -2331,13 +2331,13 @@
         <v>-1.0511459417203</v>
       </c>
       <c r="L24" s="19">
-        <v>21.5054097863705</v>
+        <v>-11.807972652153</v>
       </c>
       <c r="M24" s="19">
         <v>33.313382438523199</v>
       </c>
       <c r="N24" s="20">
-        <v>-11.807972652153</v>
+        <v>21.5054097863705</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -2375,13 +2375,13 @@
         <v>-4.0632799785431999</v>
       </c>
       <c r="L25" s="19">
-        <v>135.76635152873601</v>
+        <v>13.504084646944699</v>
       </c>
       <c r="M25" s="19">
         <v>122.26226688179101</v>
       </c>
       <c r="N25" s="20">
-        <v>13.504084646944699</v>
+        <v>135.76635152873601</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -2419,13 +2419,13 @@
         <v>0</v>
       </c>
       <c r="L26" s="19">
-        <v>81.7613292677093</v>
+        <v>61.8414221310587</v>
       </c>
       <c r="M26" s="19">
         <v>19.919907136650501</v>
       </c>
       <c r="N26" s="20">
-        <v>61.8414221310587</v>
+        <v>81.7613292677093</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -2463,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="L27" s="19">
-        <v>5.76453689990905</v>
+        <v>-2.1101156700654</v>
       </c>
       <c r="M27" s="19">
         <v>7.8746525699744598</v>
       </c>
       <c r="N27" s="20">
-        <v>-2.1101156700654</v>
+        <v>5.76453689990905</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -2507,13 +2507,13 @@
         <v>-0.16589634964530001</v>
       </c>
       <c r="L28" s="19">
-        <v>1.8234531440961701</v>
+        <v>-8.4165806897819007</v>
       </c>
       <c r="M28" s="19">
         <v>10.240033833878099</v>
       </c>
       <c r="N28" s="20">
-        <v>-8.4165806897819007</v>
+        <v>1.8234531440961701</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -2551,13 +2551,13 @@
         <v>5.5119124043494097</v>
       </c>
       <c r="L29" s="19">
-        <v>52.321598359313803</v>
+        <v>41.478845750195703</v>
       </c>
       <c r="M29" s="19">
         <v>10.842752609118399</v>
       </c>
       <c r="N29" s="20">
-        <v>41.478845750195703</v>
+        <v>52.321598359313803</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -2595,13 +2595,13 @@
         <v>4.52976555370598</v>
       </c>
       <c r="L30" s="19">
-        <v>24.999441853913101</v>
+        <v>-31.730865232340001</v>
       </c>
       <c r="M30" s="19">
         <v>56.730307086252601</v>
       </c>
       <c r="N30" s="20">
-        <v>-31.730865232340001</v>
+        <v>24.999441853913101</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -2639,13 +2639,13 @@
         <v>-8.1510119357996995</v>
       </c>
       <c r="L31" s="19">
-        <v>33.287083406552199</v>
+        <v>-12.540412262679</v>
       </c>
       <c r="M31" s="19">
         <v>45.827495669231503</v>
       </c>
       <c r="N31" s="20">
-        <v>-12.540412262679</v>
+        <v>33.287083406552199</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -2683,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="L32" s="19">
-        <v>75.255478163911306</v>
+        <v>-14.072293026582001</v>
       </c>
       <c r="M32" s="19">
         <v>89.3277711904923</v>
       </c>
       <c r="N32" s="20">
-        <v>-14.072293026582001</v>
+        <v>75.255478163911306</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
@@ -2859,13 +2859,13 @@
         <v>-9.3191073701937004</v>
       </c>
       <c r="L36" s="19">
-        <v>14.208716222156401</v>
+        <v>7.2604754966295904</v>
       </c>
       <c r="M36" s="19">
         <v>6.9482407255268601</v>
       </c>
       <c r="N36" s="20">
-        <v>7.2604754966295904</v>
+        <v>14.208716222156401</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2903,13 +2903,13 @@
         <v>0.94372113135330005</v>
       </c>
       <c r="L37" s="19">
-        <v>17.518766388067899</v>
+        <v>-8.4426353853636993</v>
       </c>
       <c r="M37" s="19">
         <v>25.9614017734316</v>
       </c>
       <c r="N37" s="20">
-        <v>-8.4426353853636993</v>
+        <v>17.518766388067899</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2947,13 +2947,13 @@
         <v>-1.4593216867601</v>
       </c>
       <c r="L38" s="26">
-        <v>13.139230572565999</v>
+        <v>-1.5455159339938001</v>
       </c>
       <c r="M38" s="26">
         <v>14.684746506559801</v>
       </c>
       <c r="N38" s="27">
-        <v>-1.5455159339938001</v>
+        <v>13.139230572565999</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
@@ -2991,13 +2991,13 @@
         <v>2.85236617314375</v>
       </c>
       <c r="L39" s="12">
-        <v>-19.059141237134</v>
+        <v>-37.349340951574</v>
       </c>
       <c r="M39" s="12">
         <v>18.29019971444</v>
       </c>
       <c r="N39" s="13">
-        <v>-37.349340951574</v>
+        <v>-19.059141237134</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -3035,13 +3035,13 @@
         <v>-0.51909694645339999</v>
       </c>
       <c r="L40" s="19">
-        <v>5.4964471808974498</v>
+        <v>-12.828276030493999</v>
       </c>
       <c r="M40" s="19">
         <v>18.3247232113915</v>
       </c>
       <c r="N40" s="20">
-        <v>-12.828276030493999</v>
+        <v>5.4964471808974498</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -3123,13 +3123,13 @@
         <v>15.309874422363199</v>
       </c>
       <c r="L42" s="12">
-        <v>42.906990448065699</v>
+        <v>-17.149398460966001</v>
       </c>
       <c r="M42" s="12">
         <v>60.056388909031</v>
       </c>
       <c r="N42" s="13">
-        <v>-17.149398460966001</v>
+        <v>42.906990448065699</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -3167,13 +3167,13 @@
         <v>6.5384669737582701</v>
       </c>
       <c r="L43" s="19">
-        <v>57.453703456696601</v>
+        <v>-0.21827329696770001</v>
       </c>
       <c r="M43" s="19">
         <v>57.671976753664303</v>
       </c>
       <c r="N43" s="20">
-        <v>-0.21827329696770001</v>
+        <v>57.453703456696601</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3211,13 +3211,13 @@
         <v>0.67052786813360998</v>
       </c>
       <c r="L44" s="19">
-        <v>59.650685265895</v>
+        <v>-49.58720220435</v>
       </c>
       <c r="M44" s="19">
         <v>109.237887470245</v>
       </c>
       <c r="N44" s="20">
-        <v>-49.58720220435</v>
+        <v>59.650685265895</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3255,13 +3255,13 @@
         <v>1.4612167296839</v>
       </c>
       <c r="L45" s="26">
-        <v>10.466450219498901</v>
+        <v>-19.282948018142001</v>
       </c>
       <c r="M45" s="26">
         <v>29.749398237641199</v>
       </c>
       <c r="N45" s="27">
-        <v>-19.282948018142001</v>
+        <v>10.466450219498901</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -3299,13 +3299,13 @@
         <v>4.0983676331642203</v>
       </c>
       <c r="L46" s="19">
-        <v>41.814450461080497</v>
+        <v>0.23892503192337</v>
       </c>
       <c r="M46" s="19">
         <v>41.575525429157103</v>
       </c>
       <c r="N46" s="20">
-        <v>0.23892503192337</v>
+        <v>41.814450461080497</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -3343,13 +3343,13 @@
         <v>1.1885482937515499</v>
       </c>
       <c r="L47" s="19">
-        <v>49.082191506237699</v>
+        <v>4.0594780202992098</v>
       </c>
       <c r="M47" s="19">
         <v>45.022713485938503</v>
       </c>
       <c r="N47" s="20">
-        <v>4.0594780202992098</v>
+        <v>49.082191506237699</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -3387,13 +3387,13 @@
         <v>-16.999819455638001</v>
       </c>
       <c r="L48" s="19">
-        <v>106.960696178977</v>
+        <v>35.655225943357898</v>
       </c>
       <c r="M48" s="19">
         <v>71.305470235619197</v>
       </c>
       <c r="N48" s="20">
-        <v>35.655225943357898</v>
+        <v>106.960696178977</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -3431,13 +3431,13 @@
         <v>-0.35592465542160001</v>
       </c>
       <c r="L49" s="19">
-        <v>6.53014344405904</v>
+        <v>-6.6222899723983</v>
       </c>
       <c r="M49" s="19">
         <v>13.1524334164574</v>
       </c>
       <c r="N49" s="20">
-        <v>-6.6222899723983</v>
+        <v>6.53014344405904</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="L50" s="19">
-        <v>35.295240803225703</v>
+        <v>-45.047566496560997</v>
       </c>
       <c r="M50" s="19">
         <v>80.342807299786202</v>
       </c>
       <c r="N50" s="20">
-        <v>-45.047566496560997</v>
+        <v>35.295240803225703</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -3519,13 +3519,13 @@
         <v>1.6768238427851501</v>
       </c>
       <c r="L51" s="15">
-        <v>54.695171804851803</v>
+        <v>6.8242922970779496</v>
       </c>
       <c r="M51" s="15">
         <v>47.870879507773999</v>
       </c>
       <c r="N51" s="16">
-        <v>6.8242922970779496</v>
+        <v>54.695171804851803</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="L52" s="19">
-        <v>43.536426523346599</v>
+        <v>-13.946601042939999</v>
       </c>
       <c r="M52" s="19">
         <v>57.483027566286196</v>
       </c>
       <c r="N52" s="20">
-        <v>-13.946601042939999</v>
+        <v>43.536426523346599</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
@@ -3607,13 +3607,13 @@
         <v>-2.198358278887</v>
       </c>
       <c r="L53" s="19">
-        <v>44.436334958874099</v>
+        <v>3.6184094859518301</v>
       </c>
       <c r="M53" s="19">
         <v>40.817925472922397</v>
       </c>
       <c r="N53" s="20">
-        <v>3.6184094859518301</v>
+        <v>44.436334958874099</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
@@ -3695,13 +3695,13 @@
         <v>3.71759140822707</v>
       </c>
       <c r="L55" s="19">
-        <v>33.767307177719601</v>
+        <v>-17.227062490594999</v>
       </c>
       <c r="M55" s="19">
         <v>50.994369668314299</v>
       </c>
       <c r="N55" s="20">
-        <v>-17.227062490594999</v>
+        <v>33.767307177719601</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
@@ -3739,13 +3739,13 @@
         <v>0.59527863927581004</v>
       </c>
       <c r="L56" s="19">
-        <v>5.4456569261345704</v>
+        <v>-10.657658484157</v>
       </c>
       <c r="M56" s="19">
         <v>16.103315410291199</v>
       </c>
       <c r="N56" s="20">
-        <v>-10.657658484157</v>
+        <v>5.4456569261345704</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
@@ -3783,13 +3783,13 @@
         <v>2.5632435892629202</v>
       </c>
       <c r="L57" s="12">
-        <v>6.5778523707923604</v>
+        <v>-29.065617732513999</v>
       </c>
       <c r="M57" s="12">
         <v>35.643470103306697</v>
       </c>
       <c r="N57" s="13">
-        <v>-29.065617732513999</v>
+        <v>6.5778523707923604</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
@@ -3827,13 +3827,13 @@
         <v>5.1639474896708801</v>
       </c>
       <c r="L58" s="19">
-        <v>34.197564124221898</v>
+        <v>-15.646917364416</v>
       </c>
       <c r="M58" s="19">
         <v>49.844481488638102</v>
       </c>
       <c r="N58" s="20">
-        <v>-15.646917364416</v>
+        <v>34.197564124221898</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
@@ -3871,13 +3871,13 @@
         <v>0</v>
       </c>
       <c r="L59" s="19">
-        <v>45.798927012677098</v>
+        <v>-24.168257216653</v>
       </c>
       <c r="M59" s="19">
         <v>69.967184229330798</v>
       </c>
       <c r="N59" s="20">
-        <v>-24.168257216653</v>
+        <v>45.798927012677098</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3915,13 +3915,13 @@
         <v>-0.61986674154370003</v>
       </c>
       <c r="L60" s="15">
-        <v>15.8668283742653</v>
+        <v>-7.0164310923753996</v>
       </c>
       <c r="M60" s="15">
         <v>22.883259466640801</v>
       </c>
       <c r="N60" s="16">
-        <v>-7.0164310923753996</v>
+        <v>15.8668283742653</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3957,13 +3957,13 @@
         <v>2.1408081384261499</v>
       </c>
       <c r="L61" s="26">
-        <v>16.847965205851601</v>
+        <v>-20.005119653721</v>
       </c>
       <c r="M61" s="26">
         <v>36.853084859572597</v>
       </c>
       <c r="N61" s="27">
-        <v>-20.005119653721</v>
+        <v>16.847965205851601</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3999,13 +3999,13 @@
         <v>1.00059116150343</v>
       </c>
       <c r="L62" s="32">
-        <v>17.441615219418399</v>
+        <v>-5.8277281869894004</v>
       </c>
       <c r="M62" s="32">
         <v>23.269343406407799</v>
       </c>
       <c r="N62" s="33">
-        <v>-5.8277281869894004</v>
+        <v>17.441615219418399</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4041,13 +4041,13 @@
         <v>5.5166433526377396</v>
       </c>
       <c r="L63" s="32">
-        <v>46.861524075181798</v>
+        <v>2.8728888641949499</v>
       </c>
       <c r="M63" s="32">
         <v>43.988604550339602</v>
       </c>
       <c r="N63" s="33">
-        <v>2.8728888641949499</v>
+        <v>46.861524075181798</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
@@ -4083,13 +4083,13 @@
         <v>1.31660690327759</v>
       </c>
       <c r="L64" s="36">
-        <v>39.630088406922198</v>
+        <v>-3.8544865297165001</v>
       </c>
       <c r="M64" s="36">
         <v>43.484574936638701</v>
       </c>
       <c r="N64" s="37">
-        <v>-3.8544865297165001</v>
+        <v>39.630088406922198</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
@@ -4125,13 +4125,13 @@
         <v>2.4044997947606399</v>
       </c>
       <c r="L65" s="39">
-        <v>16.4677269290172</v>
+        <v>-4.2007271623284002</v>
       </c>
       <c r="M65" s="39">
         <v>20.668454091345701</v>
       </c>
       <c r="N65" s="40">
-        <v>-4.2007271623284002</v>
+        <v>16.4677269290172</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4167,13 +4167,13 @@
         <v>5.2959048395918096</v>
       </c>
       <c r="L66" s="42">
-        <v>45.423518786510201</v>
+        <v>2.4476144897687999</v>
       </c>
       <c r="M66" s="42">
         <v>42.975875134745102</v>
       </c>
       <c r="N66" s="43">
-        <v>2.4476144897687999</v>
+        <v>45.423518786510201</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
@@ -4209,13 +4209,13 @@
         <v>-8.2886466999699995E-2</v>
       </c>
       <c r="L67" s="39">
-        <v>13.229158624971401</v>
+        <v>-11.234628194960001</v>
       </c>
       <c r="M67" s="39">
         <v>24.463786819931901</v>
       </c>
       <c r="N67" s="40">
-        <v>-11.234628194960001</v>
+        <v>13.229158624971401</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
@@ -4251,13 +4251,13 @@
         <v>1.5662538089979201</v>
       </c>
       <c r="L68" s="39">
-        <v>18.447118326819702</v>
+        <v>-16.559892675981001</v>
       </c>
       <c r="M68" s="39">
         <v>35.007011002800901</v>
       </c>
       <c r="N68" s="40">
-        <v>-16.559892675981001</v>
+        <v>18.447118326819702</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
@@ -4293,13 +4293,13 @@
         <v>-3.0432351743571</v>
       </c>
       <c r="L69" s="39">
-        <v>10.5155467980819</v>
+        <v>-3.9755950542445002</v>
       </c>
       <c r="M69" s="39">
         <v>14.4911418523264</v>
       </c>
       <c r="N69" s="40">
-        <v>-3.9755950542445002</v>
+        <v>10.5155467980819</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
@@ -4335,13 +4335,13 @@
         <v>-11.280737896828001</v>
       </c>
       <c r="L70" s="39">
-        <v>15.822210744734001</v>
+        <v>75.802458631423903</v>
       </c>
       <c r="M70" s="39">
         <v>-59.980247886690002</v>
       </c>
       <c r="N70" s="40">
-        <v>75.802458631423903</v>
+        <v>15.822210744734001</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
@@ -4377,13 +4377,13 @@
         <v>2.1408081384261499</v>
       </c>
       <c r="L71" s="39">
-        <v>16.847965205851601</v>
+        <v>-20.005119653721</v>
       </c>
       <c r="M71" s="39">
         <v>36.853084859572597</v>
       </c>
       <c r="N71" s="40">
-        <v>-20.005119653721</v>
+        <v>16.847965205851601</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
@@ -4419,13 +4419,13 @@
         <v>5.9510884931339998E-2</v>
       </c>
       <c r="L72" s="39">
-        <v>8.1677434715344397</v>
+        <v>-4.8508171350904004</v>
       </c>
       <c r="M72" s="39">
         <v>13.0185606066249</v>
       </c>
       <c r="N72" s="40">
-        <v>-4.8508171350904004</v>
+        <v>8.1677434715344397</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
@@ -4461,13 +4461,13 @@
         <v>3.7034045334094601</v>
       </c>
       <c r="L73" s="39">
-        <v>25.648082963996799</v>
+        <v>13.0131741760901</v>
       </c>
       <c r="M73" s="39">
         <v>12.6349087879066</v>
       </c>
       <c r="N73" s="40">
-        <v>13.0131741760901</v>
+        <v>25.648082963996799</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
@@ -4503,13 +4503,13 @@
         <v>3.96738817746771</v>
       </c>
       <c r="L74" s="39">
-        <v>16.7562011114067</v>
+        <v>-27.451610808881</v>
       </c>
       <c r="M74" s="39">
         <v>44.207811920288101</v>
       </c>
       <c r="N74" s="40">
-        <v>-27.451610808881</v>
+        <v>16.7562011114067</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4545,13 +4545,13 @@
         <v>-4.1165167655710997</v>
       </c>
       <c r="L75" s="42">
-        <v>-3.7049700877868998</v>
+        <v>65.160615292996297</v>
       </c>
       <c r="M75" s="42">
         <v>-68.865585380783997</v>
       </c>
       <c r="N75" s="43">
-        <v>65.160615292996297</v>
+        <v>-3.7049700877868998</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
@@ -4587,13 +4587,13 @@
         <v>3.97127259450694</v>
       </c>
       <c r="L76" s="39">
-        <v>35.8260902455254</v>
+        <v>-2.8188829306162</v>
       </c>
       <c r="M76" s="39">
         <v>38.644973176141598</v>
       </c>
       <c r="N76" s="40">
-        <v>-2.8188829306162</v>
+        <v>35.8260902455254</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
@@ -4629,13 +4629,13 @@
         <v>1.9761371987435301</v>
       </c>
       <c r="L77" s="39">
-        <v>23.725458646003698</v>
+        <v>-6.9532836395034003</v>
       </c>
       <c r="M77" s="39">
         <v>30.678742285507099</v>
       </c>
       <c r="N77" s="40">
-        <v>-6.9532836395034003</v>
+        <v>23.725458646003698</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
@@ -4671,13 +4671,13 @@
         <v>11.390074767926199</v>
       </c>
       <c r="L78" s="39">
-        <v>144.89928288416999</v>
+        <v>29.762435405516602</v>
       </c>
       <c r="M78" s="39">
         <v>115.13674813755701</v>
       </c>
       <c r="N78" s="40">
-        <v>29.762435405516602</v>
+        <v>144.89928288416999</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4713,13 +4713,13 @@
         <v>7.21615402219249</v>
       </c>
       <c r="L79" s="42">
-        <v>68.099794027667997</v>
+        <v>8.4986882125852699</v>
       </c>
       <c r="M79" s="42">
         <v>59.601046047843397</v>
       </c>
       <c r="N79" s="43">
-        <v>8.4986882125852699</v>
+        <v>68.099794027667997</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
@@ -4755,13 +4755,13 @@
         <v>-0.80708926365160005</v>
       </c>
       <c r="L80" s="39">
-        <v>0.93784659097791001</v>
+        <v>-3.6331140630553</v>
       </c>
       <c r="M80" s="39">
         <v>4.57096065403314</v>
       </c>
       <c r="N80" s="40">
-        <v>-3.6331140630553</v>
+        <v>0.93784659097791001</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
@@ -4797,13 +4797,13 @@
         <v>24.214902509402901</v>
       </c>
       <c r="L81" s="39">
-        <v>38.511304610596298</v>
+        <v>0.35433328772180001</v>
       </c>
       <c r="M81" s="39">
         <v>38.156971322874497</v>
       </c>
       <c r="N81" s="40">
-        <v>0.35433328772180001</v>
+        <v>38.511304610596298</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
@@ -4839,13 +4839,13 @@
         <v>1.7944636300110399</v>
       </c>
       <c r="L82" s="39">
-        <v>24.689515544286401</v>
+        <v>-6.7915289272889003</v>
       </c>
       <c r="M82" s="39">
         <v>31.481044471575299</v>
       </c>
       <c r="N82" s="40">
-        <v>-6.7915289272889003</v>
+        <v>24.689515544286401</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4881,13 +4881,13 @@
         <v>3.9784532758835001</v>
       </c>
       <c r="L83" s="42">
-        <v>47.548444959712299</v>
+        <v>3.0800748467511601</v>
       </c>
       <c r="M83" s="42">
         <v>44.468336930052097</v>
       </c>
       <c r="N83" s="43">
-        <v>3.0800748467511601</v>
+        <v>47.548444959712299</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
@@ -4923,13 +4923,13 @@
         <v>0.45858529463817999</v>
       </c>
       <c r="L84" s="39">
-        <v>22.794638639044599</v>
+        <v>-7.4775729044601</v>
       </c>
       <c r="M84" s="39">
         <v>30.272211543504799</v>
       </c>
       <c r="N84" s="40">
-        <v>-7.4775729044601</v>
+        <v>22.794638639044599</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
@@ -4965,13 +4965,13 @@
         <v>0</v>
       </c>
       <c r="L85" s="39">
-        <v>24.2893561772831</v>
+        <v>-13.052823219799</v>
       </c>
       <c r="M85" s="39">
         <v>37.342179397081999</v>
       </c>
       <c r="N85" s="40">
-        <v>-13.052823219799</v>
+        <v>24.2893561772831</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
@@ -5007,13 +5007,13 @@
         <v>2.418853549246E-2</v>
       </c>
       <c r="L86" s="39">
-        <v>11.5486552837438</v>
+        <v>-7.1044132793405002</v>
       </c>
       <c r="M86" s="39">
         <v>18.6530685630843</v>
       </c>
       <c r="N86" s="40">
-        <v>-7.1044132793405002</v>
+        <v>11.5486552837438</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
@@ -5049,13 +5049,13 @@
         <v>4.3462496382579996</v>
       </c>
       <c r="L87" s="39">
-        <v>17.305579433220601</v>
+        <v>-13.210357102687</v>
       </c>
       <c r="M87" s="39">
         <v>30.515936535907699</v>
       </c>
       <c r="N87" s="40">
-        <v>-13.210357102687</v>
+        <v>17.305579433220601</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
@@ -5091,13 +5091,13 @@
         <v>5.9262036599640604</v>
       </c>
       <c r="L88" s="39">
-        <v>39.499079291277198</v>
+        <v>1.4496771277091201</v>
       </c>
       <c r="M88" s="39">
         <v>38.049402163567997</v>
       </c>
       <c r="N88" s="40">
-        <v>1.4496771277091201</v>
+        <v>39.499079291277198</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
@@ -5133,13 +5133,13 @@
         <v>2.5148505985848701</v>
       </c>
       <c r="L89" s="39">
-        <v>28.256367173980699</v>
+        <v>0.53274609878432999</v>
       </c>
       <c r="M89" s="39">
         <v>27.723621075196402</v>
       </c>
       <c r="N89" s="40">
-        <v>0.53274609878432999</v>
+        <v>28.256367173980699</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5175,13 +5175,13 @@
         <v>8.0205436948059905</v>
       </c>
       <c r="L90" s="42">
-        <v>69.295387183390403</v>
+        <v>9.5725187914080703</v>
       </c>
       <c r="M90" s="42">
         <v>59.7228063957754</v>
       </c>
       <c r="N90" s="43">
-        <v>9.5725187914080703</v>
+        <v>69.295387183390403</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
@@ -5217,13 +5217,13 @@
         <v>-0.20723605323819999</v>
       </c>
       <c r="L91" s="39">
-        <v>16.580785549055999</v>
+        <v>10.8673276052952</v>
       </c>
       <c r="M91" s="39">
         <v>5.71345794376073</v>
       </c>
       <c r="N91" s="40">
-        <v>10.8673276052952</v>
+        <v>16.580785549055999</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
@@ -5259,13 +5259,13 @@
         <v>0.34412527155064998</v>
       </c>
       <c r="L92" s="39">
-        <v>22.492647251452599</v>
+        <v>-11.746700253824001</v>
       </c>
       <c r="M92" s="39">
         <v>34.239347505276299</v>
       </c>
       <c r="N92" s="40">
-        <v>-11.746700253824001</v>
+        <v>22.492647251452599</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
@@ -5301,13 +5301,13 @@
         <v>1.2049613828569501</v>
       </c>
       <c r="L93" s="39">
-        <v>37.825182866858199</v>
+        <v>-18.82151641071</v>
       </c>
       <c r="M93" s="39">
         <v>56.646699277568501</v>
       </c>
       <c r="N93" s="40">
-        <v>-18.82151641071</v>
+        <v>37.825182866858199</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
@@ -5343,13 +5343,13 @@
         <v>4.5166538315631701</v>
       </c>
       <c r="L94" s="39">
-        <v>111.82956261129701</v>
+        <v>16.4549603412467</v>
       </c>
       <c r="M94" s="39">
         <v>95.374602270050602</v>
       </c>
       <c r="N94" s="40">
-        <v>16.4549603412467</v>
+        <v>111.82956261129701</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
@@ -5385,13 +5385,13 @@
         <v>-4.0436155683599997E-2</v>
       </c>
       <c r="L95" s="39">
-        <v>20.877375387916501</v>
+        <v>-4.5667391222190004</v>
       </c>
       <c r="M95" s="39">
         <v>25.4441145101354</v>
       </c>
       <c r="N95" s="40">
-        <v>-4.5667391222190004</v>
+        <v>20.877375387916501</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5427,13 +5427,13 @@
         <v>4.2082548987032604</v>
       </c>
       <c r="L96" s="42">
-        <v>27.256670462722301</v>
+        <v>-16.700002588562</v>
       </c>
       <c r="M96" s="42">
         <v>43.956673051284199</v>
       </c>
       <c r="N96" s="43">
-        <v>-16.700002588562</v>
+        <v>27.256670462722301</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
@@ -5469,13 +5469,13 @@
         <v>-1.3829925623351</v>
       </c>
       <c r="L97" s="39">
-        <v>13.1577509408009</v>
+        <v>1.97594966266359</v>
       </c>
       <c r="M97" s="39">
         <v>11.1818012781373</v>
       </c>
       <c r="N97" s="40">
-        <v>1.97594966266359</v>
+        <v>13.1577509408009</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
@@ -5511,13 +5511,13 @@
         <v>27.506170938623999</v>
       </c>
       <c r="L98" s="39">
-        <v>19.435432369909201</v>
+        <v>-25.475622303733001</v>
       </c>
       <c r="M98" s="39">
         <v>44.911054673642298</v>
       </c>
       <c r="N98" s="40">
-        <v>-25.475622303733001</v>
+        <v>19.435432369909201</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5553,13 +5553,13 @@
         <v>-14.377820942704</v>
       </c>
       <c r="L99" s="42">
-        <v>39.493406032360902</v>
+        <v>45.942158038045598</v>
       </c>
       <c r="M99" s="42">
         <v>-6.4487520056843</v>
       </c>
       <c r="N99" s="43">
-        <v>45.942158038045598</v>
+        <v>39.493406032360902</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
@@ -5652,7 +5652,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="108" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -5781,7 +5781,7 @@
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -5824,7 +5824,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
